--- a/Cleaned JSON and XLSX/surveydata.xlsx
+++ b/Cleaned JSON and XLSX/surveydata.xlsx
@@ -1490,76 +1490,76 @@
       <c r="Z2">
         <v>3</v>
       </c>
-      <c r="AB2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="b">
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <v>1</v>
+      </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+      <c r="BC2">
         <v>0</v>
       </c>
     </row>
@@ -1642,76 +1642,76 @@
       <c r="Z3">
         <v>1</v>
       </c>
-      <c r="AB3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="b">
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>1</v>
+      </c>
+      <c r="AV3">
+        <v>1</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>1</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
         <v>0</v>
       </c>
     </row>
@@ -1791,76 +1791,76 @@
       <c r="AA4" t="s">
         <v>269</v>
       </c>
-      <c r="AB4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC4" t="b">
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
         <v>0</v>
       </c>
     </row>
@@ -1940,76 +1940,76 @@
       <c r="AA5" t="s">
         <v>269</v>
       </c>
-      <c r="AB5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC5" t="b">
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>1</v>
+      </c>
+      <c r="BA5">
+        <v>1</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
         <v>1</v>
       </c>
     </row>
@@ -2089,76 +2089,76 @@
       <c r="Z6">
         <v>2</v>
       </c>
-      <c r="AB6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC6" t="b">
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>1</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
         <v>1</v>
       </c>
     </row>
@@ -2235,76 +2235,76 @@
       <c r="Z7">
         <v>3</v>
       </c>
-      <c r="AB7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC7" t="b">
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>1</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>1</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
+      <c r="BC7">
         <v>0</v>
       </c>
     </row>
@@ -2384,76 +2384,76 @@
       <c r="AA8" t="s">
         <v>270</v>
       </c>
-      <c r="AB8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA8" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC8" t="b">
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
+      <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
+        <v>1</v>
+      </c>
+      <c r="AX8">
+        <v>1</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>1</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
         <v>0</v>
       </c>
     </row>
@@ -2536,76 +2536,76 @@
       <c r="Z9">
         <v>3</v>
       </c>
-      <c r="AB9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ9" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA9" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC9" t="b">
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AT9">
+        <v>1</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>1</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>1</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>1</v>
+      </c>
+      <c r="BA9">
+        <v>1</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
         <v>1</v>
       </c>
     </row>
@@ -2688,76 +2688,76 @@
       <c r="Z10">
         <v>4</v>
       </c>
-      <c r="AB10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC10" t="b">
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
+        <v>1</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AS10">
+        <v>1</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AX10">
+        <v>1</v>
+      </c>
+      <c r="AY10">
+        <v>1</v>
+      </c>
+      <c r="AZ10">
+        <v>1</v>
+      </c>
+      <c r="BA10">
+        <v>1</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
         <v>1</v>
       </c>
     </row>
@@ -2834,76 +2834,76 @@
       <c r="Z11">
         <v>2</v>
       </c>
-      <c r="AB11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC11" t="b">
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>1</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>1</v>
+      </c>
+      <c r="BB11">
+        <v>1</v>
+      </c>
+      <c r="BC11">
         <v>1</v>
       </c>
     </row>
@@ -2983,76 +2983,76 @@
       <c r="AA12" t="s">
         <v>271</v>
       </c>
-      <c r="AB12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ12" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA12" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB12" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC12" t="b">
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>1</v>
+      </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
+      <c r="AX12">
+        <v>1</v>
+      </c>
+      <c r="AY12">
+        <v>1</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>1</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
         <v>1</v>
       </c>
     </row>
@@ -3126,76 +3126,76 @@
       <c r="Z13">
         <v>4</v>
       </c>
-      <c r="AB13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ13" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA13" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB13" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC13" t="b">
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>1</v>
+      </c>
+      <c r="AT13">
+        <v>1</v>
+      </c>
+      <c r="AU13">
+        <v>1</v>
+      </c>
+      <c r="AV13">
+        <v>1</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>1</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>1</v>
+      </c>
+      <c r="BA13">
+        <v>1</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
         <v>1</v>
       </c>
     </row>
@@ -3272,76 +3272,76 @@
       <c r="AA14" t="s">
         <v>272</v>
       </c>
-      <c r="AB14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ14" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA14" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB14" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC14" t="b">
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>1</v>
+      </c>
+      <c r="AU14">
+        <v>1</v>
+      </c>
+      <c r="AV14">
+        <v>1</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>1</v>
+      </c>
+      <c r="AY14">
+        <v>1</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>1</v>
+      </c>
+      <c r="BB14">
+        <v>1</v>
+      </c>
+      <c r="BC14">
         <v>1</v>
       </c>
     </row>
@@ -3415,76 +3415,76 @@
       <c r="Z15">
         <v>3</v>
       </c>
-      <c r="AB15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ15" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB15" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC15" t="b">
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>1</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>1</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>1</v>
+      </c>
+      <c r="AW15">
+        <v>1</v>
+      </c>
+      <c r="AX15">
+        <v>1</v>
+      </c>
+      <c r="AY15">
+        <v>1</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>1</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
         <v>0</v>
       </c>
     </row>
@@ -3567,76 +3567,76 @@
       <c r="AA16" t="s">
         <v>273</v>
       </c>
-      <c r="AB16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ16" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA16" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB16" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC16" t="b">
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AP16">
+        <v>1</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>1</v>
+      </c>
+      <c r="AT16">
+        <v>1</v>
+      </c>
+      <c r="AU16">
+        <v>1</v>
+      </c>
+      <c r="AV16">
+        <v>1</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>1</v>
+      </c>
+      <c r="AY16">
+        <v>1</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>1</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
         <v>1</v>
       </c>
     </row>
@@ -3707,76 +3707,76 @@
       <c r="Z17">
         <v>2</v>
       </c>
-      <c r="AB17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ17" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB17" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC17" t="b">
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>1</v>
+      </c>
+      <c r="AT17">
+        <v>1</v>
+      </c>
+      <c r="AU17">
+        <v>1</v>
+      </c>
+      <c r="AV17">
+        <v>1</v>
+      </c>
+      <c r="AW17">
+        <v>1</v>
+      </c>
+      <c r="AX17">
+        <v>1</v>
+      </c>
+      <c r="AY17">
+        <v>1</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>1</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
         <v>1</v>
       </c>
     </row>
@@ -3856,76 +3856,76 @@
       <c r="Z18">
         <v>1</v>
       </c>
-      <c r="AB18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC18" t="b">
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>1</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>1</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>1</v>
+      </c>
+      <c r="AY18">
+        <v>1</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
         <v>1</v>
       </c>
     </row>
@@ -4008,76 +4008,76 @@
       <c r="AA19" t="s">
         <v>274</v>
       </c>
-      <c r="AB19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC19" t="b">
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>1</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>1</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>1</v>
+      </c>
+      <c r="AW19">
+        <v>1</v>
+      </c>
+      <c r="AX19">
+        <v>1</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>1</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
         <v>1</v>
       </c>
     </row>
@@ -4151,76 +4151,76 @@
       <c r="Z20">
         <v>1</v>
       </c>
-      <c r="AB20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA20" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB20" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC20" t="b">
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>1</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>1</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>1</v>
+      </c>
+      <c r="AV20">
+        <v>1</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>1</v>
+      </c>
+      <c r="BA20">
+        <v>1</v>
+      </c>
+      <c r="BB20">
+        <v>1</v>
+      </c>
+      <c r="BC20">
         <v>1</v>
       </c>
     </row>
@@ -4300,76 +4300,76 @@
       <c r="AA21" t="s">
         <v>269</v>
       </c>
-      <c r="AB21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC21" t="b">
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>1</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
         <v>1</v>
       </c>
     </row>
@@ -4449,76 +4449,76 @@
       <c r="AA22" t="s">
         <v>275</v>
       </c>
-      <c r="AB22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ22" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC22" t="b">
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>1</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>1</v>
+      </c>
+      <c r="AT22">
+        <v>1</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>1</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>1</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>1</v>
+      </c>
+      <c r="BB22">
+        <v>1</v>
+      </c>
+      <c r="BC22">
         <v>1</v>
       </c>
     </row>
@@ -4598,76 +4598,76 @@
       <c r="AA23" t="s">
         <v>276</v>
       </c>
-      <c r="AB23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ23" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA23" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB23" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC23" t="b">
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>1</v>
+      </c>
+      <c r="AQ23">
+        <v>1</v>
+      </c>
+      <c r="AS23">
+        <v>1</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>1</v>
+      </c>
+      <c r="AV23">
+        <v>1</v>
+      </c>
+      <c r="AW23">
+        <v>1</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>1</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>1</v>
+      </c>
+      <c r="BC23">
         <v>1</v>
       </c>
     </row>
@@ -4750,76 +4750,76 @@
       <c r="AA24" t="s">
         <v>276</v>
       </c>
-      <c r="AB24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ24" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC24" t="b">
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>1</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>1</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>1</v>
+      </c>
+      <c r="BB24">
+        <v>1</v>
+      </c>
+      <c r="BC24">
         <v>1</v>
       </c>
     </row>
@@ -4893,76 +4893,76 @@
       <c r="Z25">
         <v>3</v>
       </c>
-      <c r="AB25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ25" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA25" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB25" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC25" t="b">
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>1</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>1</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>1</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>1</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>1</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
         <v>1</v>
       </c>
     </row>
@@ -5039,76 +5039,76 @@
       <c r="Z26">
         <v>2</v>
       </c>
-      <c r="AB26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB26" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC26" t="b">
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>1</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>1</v>
+      </c>
+      <c r="AT26">
+        <v>1</v>
+      </c>
+      <c r="AU26">
+        <v>1</v>
+      </c>
+      <c r="AV26">
+        <v>1</v>
+      </c>
+      <c r="AW26">
+        <v>1</v>
+      </c>
+      <c r="AX26">
+        <v>1</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>1</v>
+      </c>
+      <c r="BC26">
         <v>1</v>
       </c>
     </row>
@@ -5185,76 +5185,76 @@
       <c r="Z27">
         <v>1</v>
       </c>
-      <c r="AB27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ27" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA27" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC27" t="b">
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>1</v>
+      </c>
+      <c r="AT27">
+        <v>1</v>
+      </c>
+      <c r="AU27">
+        <v>1</v>
+      </c>
+      <c r="AV27">
+        <v>1</v>
+      </c>
+      <c r="AW27">
+        <v>1</v>
+      </c>
+      <c r="AX27">
+        <v>1</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>1</v>
+      </c>
+      <c r="BA27">
+        <v>1</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
         <v>0</v>
       </c>
     </row>
@@ -5325,76 +5325,76 @@
       <c r="AA28" t="s">
         <v>277</v>
       </c>
-      <c r="AB28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC28" t="b">
+      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
+        <v>1</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>1</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>1</v>
+      </c>
+      <c r="AW28">
+        <v>1</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>1</v>
+      </c>
+      <c r="BA28">
+        <v>1</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
         <v>1</v>
       </c>
     </row>
@@ -5465,19 +5465,19 @@
       <c r="AA29" t="s">
         <v>273</v>
       </c>
-      <c r="AB29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF29" t="b">
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
         <v>0</v>
       </c>
       <c r="AG29">
@@ -5486,67 +5486,67 @@
       <c r="AH29" t="s">
         <v>284</v>
       </c>
-      <c r="AI29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ29" t="b">
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>1</v>
+      </c>
+      <c r="AQ29">
         <v>1</v>
       </c>
       <c r="AR29">
         <v>0</v>
       </c>
-      <c r="AS29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ29" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA29" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB29" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC29" t="b">
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>1</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>1</v>
+      </c>
+      <c r="AZ29">
+        <v>1</v>
+      </c>
+      <c r="BA29">
+        <v>1</v>
+      </c>
+      <c r="BB29">
+        <v>1</v>
+      </c>
+      <c r="BC29">
         <v>0</v>
       </c>
     </row>
@@ -5620,19 +5620,19 @@
       <c r="AA30" t="s">
         <v>271</v>
       </c>
-      <c r="AB30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="b">
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30">
+        <v>1</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
         <v>0</v>
       </c>
       <c r="AG30">
@@ -5641,67 +5641,67 @@
       <c r="AH30" t="s">
         <v>284</v>
       </c>
-      <c r="AI30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ30" t="b">
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>1</v>
+      </c>
+      <c r="AQ30">
         <v>0</v>
       </c>
       <c r="AR30">
         <v>1</v>
       </c>
-      <c r="AS30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA30" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC30" t="b">
+      <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>1</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>1</v>
+      </c>
+      <c r="AY30">
+        <v>1</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>1</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
         <v>1</v>
       </c>
     </row>
@@ -5784,19 +5784,19 @@
       <c r="AA31" t="s">
         <v>278</v>
       </c>
-      <c r="AB31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF31" t="b">
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>1</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AF31">
         <v>0</v>
       </c>
       <c r="AG31">
@@ -5805,67 +5805,67 @@
       <c r="AH31" t="s">
         <v>284</v>
       </c>
-      <c r="AI31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ31" t="b">
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>1</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
         <v>0</v>
       </c>
       <c r="AR31">
         <v>0</v>
       </c>
-      <c r="AS31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA31" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC31" t="b">
+      <c r="AS31">
+        <v>1</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>1</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>1</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
         <v>1</v>
       </c>
     </row>
@@ -5945,85 +5945,85 @@
       <c r="AA32" t="s">
         <v>271</v>
       </c>
-      <c r="AB32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF32" t="b">
+      <c r="AB32">
+        <v>1</v>
+      </c>
+      <c r="AC32">
+        <v>1</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
+      </c>
+      <c r="AF32">
         <v>0</v>
       </c>
       <c r="AH32" t="s">
         <v>284</v>
       </c>
-      <c r="AI32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ32" t="b">
+      <c r="AI32">
+        <v>1</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
         <v>0</v>
       </c>
       <c r="AR32">
         <v>0</v>
       </c>
-      <c r="AS32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA32" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB32" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC32" t="b">
+      <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>1</v>
+      </c>
+      <c r="AY32">
+        <v>1</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>1</v>
+      </c>
+      <c r="BB32">
+        <v>1</v>
+      </c>
+      <c r="BC32">
         <v>0</v>
       </c>
     </row>
@@ -6100,19 +6100,19 @@
       <c r="Z33">
         <v>2</v>
       </c>
-      <c r="AB33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF33" t="b">
+      <c r="AB33">
+        <v>1</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
+      </c>
+      <c r="AF33">
         <v>0</v>
       </c>
       <c r="AG33">
@@ -6121,67 +6121,67 @@
       <c r="AH33" t="s">
         <v>284</v>
       </c>
-      <c r="AI33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ33" t="b">
+      <c r="AI33">
+        <v>1</v>
+      </c>
+      <c r="AJ33">
+        <v>1</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>1</v>
+      </c>
+      <c r="AQ33">
         <v>0</v>
       </c>
       <c r="AR33">
         <v>0</v>
       </c>
-      <c r="AS33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ33" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA33" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB33" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC33" t="b">
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>1</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>1</v>
+      </c>
+      <c r="AY33">
+        <v>1</v>
+      </c>
+      <c r="AZ33">
+        <v>1</v>
+      </c>
+      <c r="BA33">
+        <v>1</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
         <v>1</v>
       </c>
     </row>
@@ -6258,19 +6258,19 @@
       <c r="AA34" t="s">
         <v>279</v>
       </c>
-      <c r="AB34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF34" t="b">
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>1</v>
+      </c>
+      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="AF34">
         <v>0</v>
       </c>
       <c r="AG34">
@@ -6279,67 +6279,67 @@
       <c r="AH34" t="s">
         <v>284</v>
       </c>
-      <c r="AI34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ34" t="b">
+      <c r="AI34">
+        <v>1</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>1</v>
+      </c>
+      <c r="AQ34">
         <v>0</v>
       </c>
       <c r="AR34">
         <v>0</v>
       </c>
-      <c r="AS34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ34" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA34" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB34" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC34" t="b">
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>1</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
         <v>0</v>
       </c>
     </row>
@@ -6419,19 +6419,19 @@
       <c r="AA35" t="s">
         <v>270</v>
       </c>
-      <c r="AB35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF35" t="b">
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>1</v>
+      </c>
+      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
         <v>0</v>
       </c>
       <c r="AG35">
@@ -6440,67 +6440,67 @@
       <c r="AH35" t="s">
         <v>285</v>
       </c>
-      <c r="AI35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ35" t="b">
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>1</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>1</v>
+      </c>
+      <c r="AQ35">
         <v>0</v>
       </c>
       <c r="AR35">
         <v>0</v>
       </c>
-      <c r="AS35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ35" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA35" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB35" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC35" t="b">
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>1</v>
+      </c>
+      <c r="AW35">
+        <v>1</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
         <v>0</v>
       </c>
     </row>
@@ -6571,19 +6571,19 @@
       <c r="AA36" t="s">
         <v>280</v>
       </c>
-      <c r="AB36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF36" t="b">
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>1</v>
+      </c>
+      <c r="AD36">
+        <v>1</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
         <v>1</v>
       </c>
       <c r="AG36">
@@ -6592,67 +6592,67 @@
       <c r="AH36" t="s">
         <v>284</v>
       </c>
-      <c r="AI36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ36" t="b">
+      <c r="AI36">
+        <v>1</v>
+      </c>
+      <c r="AJ36">
+        <v>1</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>1</v>
+      </c>
+      <c r="AQ36">
         <v>0</v>
       </c>
       <c r="AR36">
         <v>0</v>
       </c>
-      <c r="AS36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ36" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA36" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC36" t="b">
+      <c r="AS36">
+        <v>0</v>
+      </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AV36">
+        <v>1</v>
+      </c>
+      <c r="AW36">
+        <v>0</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>1</v>
+      </c>
+      <c r="BA36">
+        <v>1</v>
+      </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
+      <c r="BC36">
         <v>1</v>
       </c>
     </row>
@@ -6729,19 +6729,19 @@
       <c r="AA37" t="s">
         <v>277</v>
       </c>
-      <c r="AB37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF37" t="b">
+      <c r="AB37">
+        <v>1</v>
+      </c>
+      <c r="AC37">
+        <v>1</v>
+      </c>
+      <c r="AD37">
+        <v>1</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
+      </c>
+      <c r="AF37">
         <v>1</v>
       </c>
       <c r="AG37">
@@ -6750,67 +6750,67 @@
       <c r="AH37" t="s">
         <v>284</v>
       </c>
-      <c r="AI37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ37" t="b">
+      <c r="AI37">
+        <v>1</v>
+      </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>0</v>
+      </c>
+      <c r="AQ37">
         <v>0</v>
       </c>
       <c r="AR37">
         <v>1</v>
       </c>
-      <c r="AS37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA37" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC37" t="b">
+      <c r="AS37">
+        <v>0</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <v>1</v>
+      </c>
+      <c r="AW37">
+        <v>0</v>
+      </c>
+      <c r="AX37">
+        <v>1</v>
+      </c>
+      <c r="AY37">
+        <v>1</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>1</v>
+      </c>
+      <c r="BB37">
+        <v>0</v>
+      </c>
+      <c r="BC37">
         <v>1</v>
       </c>
     </row>
@@ -6890,19 +6890,19 @@
       <c r="AA38" t="s">
         <v>269</v>
       </c>
-      <c r="AB38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF38" t="b">
+      <c r="AB38">
+        <v>1</v>
+      </c>
+      <c r="AC38">
+        <v>1</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
+      </c>
+      <c r="AF38">
         <v>1</v>
       </c>
       <c r="AG38">
@@ -6911,67 +6911,67 @@
       <c r="AH38" t="s">
         <v>284</v>
       </c>
-      <c r="AI38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ38" t="b">
+      <c r="AI38">
+        <v>1</v>
+      </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>1</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
         <v>0</v>
       </c>
       <c r="AR38">
         <v>0</v>
       </c>
-      <c r="AS38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA38" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC38" t="b">
+      <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <v>1</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>1</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38">
         <v>1</v>
       </c>
     </row>
@@ -7054,19 +7054,19 @@
       <c r="AA39" t="s">
         <v>281</v>
       </c>
-      <c r="AB39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF39" t="b">
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
+      </c>
+      <c r="AF39">
         <v>0</v>
       </c>
       <c r="AG39">
@@ -7075,67 +7075,67 @@
       <c r="AH39" t="s">
         <v>284</v>
       </c>
-      <c r="AI39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ39" t="b">
+      <c r="AI39">
+        <v>1</v>
+      </c>
+      <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>1</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>1</v>
+      </c>
+      <c r="AP39">
+        <v>0</v>
+      </c>
+      <c r="AQ39">
         <v>0</v>
       </c>
       <c r="AR39">
         <v>1</v>
       </c>
-      <c r="AS39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ39" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA39" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB39" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC39" t="b">
+      <c r="AS39">
+        <v>0</v>
+      </c>
+      <c r="AT39">
+        <v>0</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AV39">
+        <v>0</v>
+      </c>
+      <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>0</v>
+      </c>
+      <c r="AZ39">
+        <v>0</v>
+      </c>
+      <c r="BA39">
+        <v>0</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BC39">
         <v>1</v>
       </c>
     </row>
@@ -7206,19 +7206,19 @@
       <c r="AA40" t="s">
         <v>282</v>
       </c>
-      <c r="AB40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF40" t="b">
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>1</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
         <v>0</v>
       </c>
       <c r="AG40">
@@ -7227,67 +7227,67 @@
       <c r="AH40" t="s">
         <v>286</v>
       </c>
-      <c r="AI40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ40" t="b">
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>1</v>
+      </c>
+      <c r="AK40">
+        <v>1</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
+        <v>1</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>0</v>
+      </c>
+      <c r="AQ40">
         <v>0</v>
       </c>
       <c r="AR40">
         <v>0</v>
       </c>
-      <c r="AS40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ40" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA40" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB40" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC40" t="b">
+      <c r="AS40">
+        <v>0</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
+      <c r="AV40">
+        <v>1</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>1</v>
+      </c>
+      <c r="AY40">
+        <v>1</v>
+      </c>
+      <c r="AZ40">
+        <v>1</v>
+      </c>
+      <c r="BA40">
+        <v>1</v>
+      </c>
+      <c r="BB40">
+        <v>1</v>
+      </c>
+      <c r="BC40">
         <v>1</v>
       </c>
     </row>
@@ -7364,19 +7364,19 @@
       <c r="Z41">
         <v>3</v>
       </c>
-      <c r="AB41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD41" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE41" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF41" t="b">
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>1</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
+      </c>
+      <c r="AF41">
         <v>0</v>
       </c>
       <c r="AG41">
@@ -7385,67 +7385,67 @@
       <c r="AH41" t="s">
         <v>285</v>
       </c>
-      <c r="AI41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ41" t="b">
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>0</v>
+      </c>
+      <c r="AQ41">
         <v>0</v>
       </c>
       <c r="AR41">
         <v>0</v>
       </c>
-      <c r="AS41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ41" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA41" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB41" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC41" t="b">
+      <c r="AS41">
+        <v>0</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>1</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
         <v>1</v>
       </c>
     </row>
@@ -7516,19 +7516,19 @@
       <c r="AA42" t="s">
         <v>270</v>
       </c>
-      <c r="AB42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF42" t="b">
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>1</v>
+      </c>
+      <c r="AD42">
+        <v>1</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
+      </c>
+      <c r="AF42">
         <v>0</v>
       </c>
       <c r="AG42">
@@ -7537,67 +7537,67 @@
       <c r="AH42" t="s">
         <v>287</v>
       </c>
-      <c r="AI42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ42" t="b">
+      <c r="AI42">
+        <v>1</v>
+      </c>
+      <c r="AJ42">
+        <v>1</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
+      <c r="AQ42">
         <v>1</v>
       </c>
       <c r="AR42">
         <v>0</v>
       </c>
-      <c r="AS42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC42" t="b">
+      <c r="AS42">
+        <v>0</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AV42">
+        <v>1</v>
+      </c>
+      <c r="AW42">
+        <v>0</v>
+      </c>
+      <c r="AX42">
+        <v>1</v>
+      </c>
+      <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <v>0</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BC42">
         <v>1</v>
       </c>
     </row>
@@ -7674,19 +7674,19 @@
       <c r="AA43" t="s">
         <v>269</v>
       </c>
-      <c r="AB43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF43" t="b">
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
+      </c>
+      <c r="AF43">
         <v>0</v>
       </c>
       <c r="AG43">
@@ -7695,67 +7695,67 @@
       <c r="AH43" t="s">
         <v>287</v>
       </c>
-      <c r="AI43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ43" t="b">
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <v>1</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
+        <v>1</v>
+      </c>
+      <c r="AN43">
+        <v>0</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>0</v>
+      </c>
+      <c r="AQ43">
         <v>1</v>
       </c>
       <c r="AR43">
         <v>0</v>
       </c>
-      <c r="AS43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA43" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC43" t="b">
+      <c r="AS43">
+        <v>0</v>
+      </c>
+      <c r="AT43">
+        <v>0</v>
+      </c>
+      <c r="AU43">
+        <v>0</v>
+      </c>
+      <c r="AV43">
+        <v>1</v>
+      </c>
+      <c r="AW43">
+        <v>0</v>
+      </c>
+      <c r="AX43">
+        <v>1</v>
+      </c>
+      <c r="AY43">
+        <v>0</v>
+      </c>
+      <c r="AZ43">
+        <v>0</v>
+      </c>
+      <c r="BA43">
+        <v>1</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BC43">
         <v>1</v>
       </c>
     </row>
@@ -7823,19 +7823,19 @@
       <c r="Z44">
         <v>5</v>
       </c>
-      <c r="AB44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF44" t="b">
+      <c r="AB44">
+        <v>1</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>1</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
         <v>1</v>
       </c>
       <c r="AG44">
@@ -7844,67 +7844,67 @@
       <c r="AH44" t="s">
         <v>284</v>
       </c>
-      <c r="AI44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ44" t="b">
+      <c r="AI44">
+        <v>1</v>
+      </c>
+      <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
+        <v>1</v>
+      </c>
+      <c r="AP44">
+        <v>1</v>
+      </c>
+      <c r="AQ44">
         <v>0</v>
       </c>
       <c r="AR44">
         <v>0</v>
       </c>
-      <c r="AS44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA44" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC44" t="b">
+      <c r="AS44">
+        <v>0</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
+        <v>0</v>
+      </c>
+      <c r="AV44">
+        <v>1</v>
+      </c>
+      <c r="AW44">
+        <v>0</v>
+      </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>1</v>
+      </c>
+      <c r="AZ44">
+        <v>0</v>
+      </c>
+      <c r="BA44">
+        <v>1</v>
+      </c>
+      <c r="BB44">
+        <v>0</v>
+      </c>
+      <c r="BC44">
         <v>1</v>
       </c>
     </row>
@@ -7978,19 +7978,19 @@
       <c r="AA45" t="s">
         <v>276</v>
       </c>
-      <c r="AB45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE45" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF45" t="b">
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
+      </c>
+      <c r="AF45">
         <v>1</v>
       </c>
       <c r="AG45">
@@ -7999,67 +7999,67 @@
       <c r="AH45" t="s">
         <v>287</v>
       </c>
-      <c r="AI45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO45" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ45" t="b">
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>0</v>
+      </c>
+      <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <v>1</v>
+      </c>
+      <c r="AP45">
+        <v>0</v>
+      </c>
+      <c r="AQ45">
         <v>0</v>
       </c>
       <c r="AR45">
         <v>1</v>
       </c>
-      <c r="AS45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV45" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW45" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA45" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC45" t="b">
+      <c r="AS45">
+        <v>0</v>
+      </c>
+      <c r="AT45">
+        <v>0</v>
+      </c>
+      <c r="AU45">
+        <v>0</v>
+      </c>
+      <c r="AV45">
+        <v>1</v>
+      </c>
+      <c r="AW45">
+        <v>1</v>
+      </c>
+      <c r="AX45">
+        <v>0</v>
+      </c>
+      <c r="AY45">
+        <v>0</v>
+      </c>
+      <c r="AZ45">
+        <v>0</v>
+      </c>
+      <c r="BA45">
+        <v>1</v>
+      </c>
+      <c r="BB45">
+        <v>0</v>
+      </c>
+      <c r="BC45">
         <v>0</v>
       </c>
     </row>
@@ -8130,19 +8130,19 @@
       <c r="AA46" t="s">
         <v>275</v>
       </c>
-      <c r="AB46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC46" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD46" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF46" t="b">
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>1</v>
+      </c>
+      <c r="AD46">
+        <v>1</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
         <v>0</v>
       </c>
       <c r="AG46">
@@ -8151,67 +8151,67 @@
       <c r="AH46" t="s">
         <v>285</v>
       </c>
-      <c r="AI46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ46" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL46" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM46" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN46" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ46" t="b">
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>1</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
+        <v>1</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>0</v>
+      </c>
+      <c r="AQ46">
         <v>0</v>
       </c>
       <c r="AR46">
         <v>0</v>
       </c>
-      <c r="AS46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV46" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY46" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA46" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC46" t="b">
+      <c r="AS46">
+        <v>0</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <v>1</v>
+      </c>
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>1</v>
+      </c>
+      <c r="AZ46">
+        <v>0</v>
+      </c>
+      <c r="BA46">
+        <v>1</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
         <v>1</v>
       </c>
     </row>
@@ -8291,19 +8291,19 @@
       <c r="AA47" t="s">
         <v>276</v>
       </c>
-      <c r="AB47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF47" t="b">
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>1</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
+      </c>
+      <c r="AF47">
         <v>0</v>
       </c>
       <c r="AG47">
@@ -8312,67 +8312,67 @@
       <c r="AH47" t="s">
         <v>288</v>
       </c>
-      <c r="AI47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ47" t="b">
+      <c r="AI47">
+        <v>1</v>
+      </c>
+      <c r="AJ47">
+        <v>1</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>0</v>
+      </c>
+      <c r="AM47">
+        <v>1</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>1</v>
+      </c>
+      <c r="AQ47">
         <v>1</v>
       </c>
       <c r="AR47">
         <v>0</v>
       </c>
-      <c r="AS47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC47" t="b">
+      <c r="AS47">
+        <v>0</v>
+      </c>
+      <c r="AT47">
+        <v>0</v>
+      </c>
+      <c r="AU47">
+        <v>0</v>
+      </c>
+      <c r="AV47">
+        <v>0</v>
+      </c>
+      <c r="AW47">
+        <v>0</v>
+      </c>
+      <c r="AX47">
+        <v>0</v>
+      </c>
+      <c r="AY47">
+        <v>0</v>
+      </c>
+      <c r="AZ47">
+        <v>0</v>
+      </c>
+      <c r="BA47">
+        <v>0</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BC47">
         <v>0</v>
       </c>
     </row>
@@ -8449,19 +8449,19 @@
       <c r="AA48" t="s">
         <v>279</v>
       </c>
-      <c r="AB48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC48" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE48" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF48" t="b">
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>1</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
+      </c>
+      <c r="AF48">
         <v>1</v>
       </c>
       <c r="AG48">
@@ -8470,67 +8470,67 @@
       <c r="AH48" t="s">
         <v>287</v>
       </c>
-      <c r="AI48" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ48" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN48" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP48" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ48" t="b">
+      <c r="AI48">
+        <v>1</v>
+      </c>
+      <c r="AJ48">
+        <v>1</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>1</v>
+      </c>
+      <c r="AQ48">
         <v>0</v>
       </c>
       <c r="AR48">
         <v>1</v>
       </c>
-      <c r="AS48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV48" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX48" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA48" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB48" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC48" t="b">
+      <c r="AS48">
+        <v>0</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <v>1</v>
+      </c>
+      <c r="AW48">
+        <v>0</v>
+      </c>
+      <c r="AX48">
+        <v>1</v>
+      </c>
+      <c r="AY48">
+        <v>0</v>
+      </c>
+      <c r="AZ48">
+        <v>0</v>
+      </c>
+      <c r="BA48">
+        <v>1</v>
+      </c>
+      <c r="BB48">
+        <v>1</v>
+      </c>
+      <c r="BC48">
         <v>0</v>
       </c>
     </row>
@@ -8610,19 +8610,19 @@
       <c r="AA49" t="s">
         <v>283</v>
       </c>
-      <c r="AB49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC49" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE49" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF49" t="b">
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>1</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
+      </c>
+      <c r="AF49">
         <v>0</v>
       </c>
       <c r="AG49">
@@ -8631,67 +8631,67 @@
       <c r="AH49" t="s">
         <v>284</v>
       </c>
-      <c r="AI49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ49" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO49" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ49" t="b">
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>1</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>0</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>1</v>
+      </c>
+      <c r="AP49">
+        <v>0</v>
+      </c>
+      <c r="AQ49">
         <v>0</v>
       </c>
       <c r="AR49">
         <v>1</v>
       </c>
-      <c r="AS49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA49" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC49" t="b">
+      <c r="AS49">
+        <v>0</v>
+      </c>
+      <c r="AT49">
+        <v>0</v>
+      </c>
+      <c r="AU49">
+        <v>0</v>
+      </c>
+      <c r="AV49">
+        <v>0</v>
+      </c>
+      <c r="AW49">
+        <v>0</v>
+      </c>
+      <c r="AX49">
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <v>0</v>
+      </c>
+      <c r="AZ49">
+        <v>0</v>
+      </c>
+      <c r="BA49">
+        <v>1</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BC49">
         <v>1</v>
       </c>
     </row>
@@ -8768,19 +8768,19 @@
       <c r="AA50" t="s">
         <v>269</v>
       </c>
-      <c r="AB50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE50" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF50" t="b">
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>1</v>
+      </c>
+      <c r="AF50">
         <v>0</v>
       </c>
       <c r="AG50">
@@ -8789,67 +8789,67 @@
       <c r="AH50" t="s">
         <v>287</v>
       </c>
-      <c r="AI50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ50" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL50" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM50" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ50" t="b">
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>1</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
+        <v>1</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>0</v>
+      </c>
+      <c r="AQ50">
         <v>1</v>
       </c>
       <c r="AR50">
         <v>0</v>
       </c>
-      <c r="AS50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV50" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX50" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ50" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA50" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB50" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC50" t="b">
+      <c r="AS50">
+        <v>0</v>
+      </c>
+      <c r="AT50">
+        <v>0</v>
+      </c>
+      <c r="AU50">
+        <v>0</v>
+      </c>
+      <c r="AV50">
+        <v>1</v>
+      </c>
+      <c r="AW50">
+        <v>0</v>
+      </c>
+      <c r="AX50">
+        <v>1</v>
+      </c>
+      <c r="AY50">
+        <v>0</v>
+      </c>
+      <c r="AZ50">
+        <v>0</v>
+      </c>
+      <c r="BA50">
+        <v>1</v>
+      </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
+      <c r="BC50">
         <v>1</v>
       </c>
     </row>

--- a/Cleaned JSON and XLSX/surveydata.xlsx
+++ b/Cleaned JSON and XLSX/surveydata.xlsx
@@ -1479,7 +1479,7 @@
         <v>4</v>
       </c>
       <c r="W2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X2">
         <v>2</v>
@@ -1631,7 +1631,7 @@
         <v>2</v>
       </c>
       <c r="W3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>2</v>
@@ -1777,7 +1777,7 @@
         <v>3</v>
       </c>
       <c r="W4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X4">
         <v>1</v>
@@ -1926,7 +1926,7 @@
         <v>3</v>
       </c>
       <c r="W5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>2</v>
@@ -2078,7 +2078,7 @@
         <v>2</v>
       </c>
       <c r="W6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>3</v>
       </c>
       <c r="W7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X7">
         <v>1</v>
@@ -2370,7 +2370,7 @@
         <v>4</v>
       </c>
       <c r="W8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X8">
         <v>1</v>
@@ -2525,7 +2525,7 @@
         <v>3</v>
       </c>
       <c r="W9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X9">
         <v>1</v>
@@ -2677,7 +2677,7 @@
         <v>5</v>
       </c>
       <c r="W10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <v>3</v>
@@ -2823,7 +2823,7 @@
         <v>4</v>
       </c>
       <c r="W11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X11">
         <v>4</v>
@@ -2969,7 +2969,7 @@
         <v>3</v>
       </c>
       <c r="W12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X12">
         <v>2</v>
@@ -3115,7 +3115,7 @@
         <v>3</v>
       </c>
       <c r="W13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X13">
         <v>1</v>
@@ -3258,7 +3258,7 @@
         <v>3</v>
       </c>
       <c r="W14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X14">
         <v>5</v>
@@ -3404,7 +3404,7 @@
         <v>3</v>
       </c>
       <c r="W15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X15">
         <v>2</v>
@@ -3553,7 +3553,7 @@
         <v>2</v>
       </c>
       <c r="W16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X16">
         <v>1</v>
@@ -3696,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="W17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <v>3</v>
@@ -3845,7 +3845,7 @@
         <v>4</v>
       </c>
       <c r="W18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X18">
         <v>4</v>
@@ -3994,7 +3994,7 @@
         <v>2</v>
       </c>
       <c r="W19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X19">
         <v>4</v>
@@ -4140,7 +4140,7 @@
         <v>3</v>
       </c>
       <c r="W20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X20">
         <v>3</v>
@@ -4286,7 +4286,7 @@
         <v>1</v>
       </c>
       <c r="W21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X21">
         <v>1</v>
@@ -4435,7 +4435,7 @@
         <v>4</v>
       </c>
       <c r="W22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X22">
         <v>1</v>
@@ -4584,7 +4584,7 @@
         <v>4</v>
       </c>
       <c r="W23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X23">
         <v>3</v>
@@ -4882,7 +4882,7 @@
         <v>2</v>
       </c>
       <c r="W25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X25">
         <v>3</v>
@@ -5028,7 +5028,7 @@
         <v>4</v>
       </c>
       <c r="W26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X26">
         <v>4</v>
@@ -5174,7 +5174,7 @@
         <v>4</v>
       </c>
       <c r="W27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X27">
         <v>4</v>
@@ -5311,7 +5311,7 @@
         <v>5</v>
       </c>
       <c r="W28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X28">
         <v>3</v>
@@ -5451,7 +5451,7 @@
         <v>4</v>
       </c>
       <c r="W29">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X29">
         <v>1</v>
@@ -5606,7 +5606,7 @@
         <v>4</v>
       </c>
       <c r="W30">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X30">
         <v>1</v>
@@ -5770,7 +5770,7 @@
         <v>2</v>
       </c>
       <c r="W31">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="X31">
         <v>3</v>
@@ -5931,7 +5931,7 @@
         <v>4</v>
       </c>
       <c r="W32">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X32">
         <v>4</v>
@@ -6089,7 +6089,7 @@
         <v>2</v>
       </c>
       <c r="W33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X33">
         <v>2</v>
@@ -6244,7 +6244,7 @@
         <v>3</v>
       </c>
       <c r="W34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X34">
         <v>3</v>
@@ -6405,7 +6405,7 @@
         <v>2</v>
       </c>
       <c r="W35">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X35">
         <v>2</v>
@@ -6557,7 +6557,7 @@
         <v>4</v>
       </c>
       <c r="W36">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X36">
         <v>1</v>
@@ -6715,7 +6715,7 @@
         <v>3</v>
       </c>
       <c r="W37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X37">
         <v>3</v>
@@ -6873,19 +6873,19 @@
         <v>262</v>
       </c>
       <c r="V38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X38">
         <v>1</v>
       </c>
       <c r="Y38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA38" t="s">
         <v>269</v>

--- a/Cleaned JSON and XLSX/surveydata.xlsx
+++ b/Cleaned JSON and XLSX/surveydata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="314">
   <si>
     <t>survey_loc</t>
   </si>
@@ -61,6 +61,9 @@
     <t>fav_music_artists</t>
   </si>
   <si>
+    <t>chosen_music_artists</t>
+  </si>
+  <si>
     <t>fav_color</t>
   </si>
   <si>
@@ -590,6 +593,78 @@
   </si>
   <si>
     <t>Motley Crue, AC/DC...</t>
+  </si>
+  <si>
+    <t>Radiohead, Beethoven</t>
+  </si>
+  <si>
+    <t>Pink Floyd, Chicago, Billy Joel, Beethoven</t>
+  </si>
+  <si>
+    <t>Beethoven</t>
+  </si>
+  <si>
+    <t>Post Malone, Maroon 5, Rex Orange County, Pink Floyd, Radiohead, Beethoven, The Beatles</t>
+  </si>
+  <si>
+    <t>Frank Zappa, Pink Floyd, Chicago, Radiohead, Beethoven, The Beatles</t>
+  </si>
+  <si>
+    <t>Maroon 5, Billy Joel, Beethoven, The Beatles</t>
+  </si>
+  <si>
+    <t>Pink Floyd, Billy Joel</t>
+  </si>
+  <si>
+    <t>Post Malone, Beyoncé, Lil Wayne, Rex Orange County, Pink Floyd, Radiohead, The Beatles</t>
+  </si>
+  <si>
+    <t>Post Malone, Rex Orange County, Radiohead</t>
+  </si>
+  <si>
+    <t>Rex Orange County, Pink Floyd, Radiohead, The Beatles</t>
+  </si>
+  <si>
+    <t>Rex Orange County, Pink Floyd, Beethoven, The Beatles</t>
+  </si>
+  <si>
+    <t>Maroon 5, Rex Orange County, Pink Floyd, Beethoven</t>
+  </si>
+  <si>
+    <t>Post Malone, Pink Floyd, Chicago, Radiohead, Billy Joel, Beethoven, The Beatles</t>
+  </si>
+  <si>
+    <t>Post Malone, Beyoncé, Lil Wayne, Justin Timberlake, Maroon 5, Billy Joel, The Beatles</t>
+  </si>
+  <si>
+    <t>Post Malone, Chicago, The Beatles</t>
+  </si>
+  <si>
+    <t>Post Malone, Rex Orange County, Frank Zappa, Pink Floyd, Radiohead, Beethoven, The Beatles</t>
+  </si>
+  <si>
+    <t>Chicago, Radiohead, Beethoven, The Beatles</t>
+  </si>
+  <si>
+    <t>Post Malone, Beyoncé, Lil Wayne, Rex Orange County, Radiohead</t>
+  </si>
+  <si>
+    <t>Post Malone, Beyoncé</t>
+  </si>
+  <si>
+    <t>Post Malone</t>
+  </si>
+  <si>
+    <t>Rex Orange County, Pink Floyd, Chicago, Billy Joel, Beethoven, The Beatles</t>
+  </si>
+  <si>
+    <t>Beyoncé, Maroon 5, Pink Floyd, Radiohead, Billy Joel, Beethoven, The Beatles</t>
+  </si>
+  <si>
+    <t>Beyoncé, Justin Timberlake, Maroon 5, Rex Orange County</t>
+  </si>
+  <si>
+    <t>Beyoncé, Maroon 5, Pink Floyd, Chicago, Radiohead, Billy Joel, Beethoven, The Beatles</t>
   </si>
   <si>
     <t>Orange</t>
@@ -1244,15 +1319,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC50"/>
+  <dimension ref="A1:BD50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:56">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1416,31 +1491,34 @@
       <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:56">
       <c r="A2" s="2">
         <v>43880.47259681713</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I2">
         <v>3.34</v>
@@ -1455,57 +1533,57 @@
         <v>1050</v>
       </c>
       <c r="O2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R2" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="S2" t="s">
-        <v>234</v>
-      </c>
-      <c r="T2">
+        <v>228</v>
+      </c>
+      <c r="T2" t="s">
+        <v>259</v>
+      </c>
+      <c r="U2">
         <v>9.5</v>
       </c>
-      <c r="U2" t="s">
-        <v>252</v>
-      </c>
-      <c r="V2">
+      <c r="V2" t="s">
+        <v>277</v>
+      </c>
+      <c r="W2">
         <v>4</v>
-      </c>
-      <c r="W2">
-        <v>2</v>
       </c>
       <c r="X2">
         <v>2</v>
       </c>
       <c r="Y2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z2">
         <v>3</v>
       </c>
-      <c r="AB2">
-        <v>1</v>
+      <c r="AA2">
+        <v>3</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>1</v>
-      </c>
-      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
         <v>1</v>
       </c>
       <c r="AK2">
@@ -1515,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN2">
         <v>0</v>
@@ -1529,11 +1607,11 @@
       <c r="AQ2">
         <v>0</v>
       </c>
-      <c r="AS2">
-        <v>1</v>
+      <c r="AR2">
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1545,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2">
         <v>1</v>
@@ -1560,33 +1638,36 @@
         <v>1</v>
       </c>
       <c r="BC2">
+        <v>1</v>
+      </c>
+      <c r="BD2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:56">
       <c r="A3" s="2">
         <v>43880.47382396991</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I3">
         <v>3.5</v>
@@ -1607,64 +1688,64 @@
         <v>132</v>
       </c>
       <c r="O3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="R3" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="S3" t="s">
-        <v>235</v>
-      </c>
-      <c r="T3">
+        <v>220</v>
+      </c>
+      <c r="T3" t="s">
+        <v>260</v>
+      </c>
+      <c r="U3">
         <v>8</v>
       </c>
-      <c r="U3" t="s">
-        <v>253</v>
-      </c>
-      <c r="V3">
+      <c r="V3" t="s">
+        <v>278</v>
+      </c>
+      <c r="W3">
         <v>2</v>
       </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
       <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
         <v>2</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>3</v>
       </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AB3">
+      <c r="AA3">
         <v>1</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>1</v>
       </c>
       <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3">
         <v>0</v>
@@ -1681,8 +1762,8 @@
       <c r="AQ3">
         <v>0</v>
       </c>
-      <c r="AS3">
-        <v>1</v>
+      <c r="AR3">
+        <v>0</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -1694,51 +1775,54 @@
         <v>1</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ3">
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC3">
         <v>0</v>
       </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:56">
       <c r="A4" s="2">
         <v>43880.4738690162</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I4">
         <v>4</v>
@@ -1753,76 +1837,76 @@
         <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="S4" t="s">
-        <v>236</v>
-      </c>
-      <c r="T4">
+        <v>220</v>
+      </c>
+      <c r="T4" t="s">
+        <v>261</v>
+      </c>
+      <c r="U4">
         <v>9</v>
       </c>
-      <c r="U4" t="s">
-        <v>252</v>
-      </c>
-      <c r="V4">
-        <v>3</v>
+      <c r="V4" t="s">
+        <v>277</v>
       </c>
       <c r="W4">
         <v>3</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
         <v>2</v>
       </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>294</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
-      <c r="AJ4">
-        <v>1</v>
+      <c r="AG4">
+        <v>0</v>
       </c>
       <c r="AK4">
         <v>1</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4">
         <v>1</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -1830,20 +1914,20 @@
       <c r="AQ4">
         <v>0</v>
       </c>
-      <c r="AS4">
-        <v>1</v>
+      <c r="AR4">
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4">
         <v>0</v>
       </c>
       <c r="AV4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX4">
         <v>0</v>
@@ -1852,42 +1936,45 @@
         <v>0</v>
       </c>
       <c r="AZ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4">
         <v>1</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC4">
         <v>0</v>
       </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:56">
       <c r="A5" s="2">
         <v>43880.47555870371</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I5">
         <v>3.98</v>
@@ -1905,46 +1992,46 @@
         <v>33</v>
       </c>
       <c r="P5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="R5" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="S5" t="s">
-        <v>237</v>
-      </c>
-      <c r="T5">
+        <v>238</v>
+      </c>
+      <c r="T5" t="s">
+        <v>262</v>
+      </c>
+      <c r="U5">
         <v>7.983333333333333</v>
       </c>
-      <c r="U5" t="s">
-        <v>254</v>
-      </c>
-      <c r="V5">
+      <c r="V5" t="s">
+        <v>279</v>
+      </c>
+      <c r="W5">
         <v>3</v>
       </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
       <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
         <v>2</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>4</v>
       </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>294</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>1</v>
@@ -1953,34 +2040,34 @@
         <v>1</v>
       </c>
       <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5">
         <v>1</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>0</v>
       </c>
-      <c r="AS5">
-        <v>1</v>
+      <c r="AR5">
+        <v>0</v>
       </c>
       <c r="AT5">
         <v>1</v>
@@ -1998,45 +2085,48 @@
         <v>1</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5">
         <v>1</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:56">
       <c r="A6" s="2">
         <v>43880.48336925926</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I6">
         <v>3.87</v>
@@ -2054,61 +2144,61 @@
         <v>141</v>
       </c>
       <c r="O6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="R6" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="S6" t="s">
-        <v>238</v>
-      </c>
-      <c r="T6">
+        <v>228</v>
+      </c>
+      <c r="T6" t="s">
+        <v>263</v>
+      </c>
+      <c r="U6">
         <v>9</v>
       </c>
-      <c r="U6" t="s">
-        <v>253</v>
-      </c>
-      <c r="V6">
+      <c r="V6" t="s">
+        <v>278</v>
+      </c>
+      <c r="W6">
         <v>2</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>4</v>
       </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
       <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
         <v>3</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>2</v>
       </c>
-      <c r="AB6">
-        <v>1</v>
-      </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>1</v>
-      </c>
-      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
         <v>1</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -2117,31 +2207,31 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV6">
         <v>1</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX6">
         <v>0</v>
@@ -2153,39 +2243,42 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:56">
       <c r="A7" s="2">
         <v>43880.50029479167</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -2200,44 +2293,41 @@
         <v>1400</v>
       </c>
       <c r="O7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="R7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="S7" t="s">
         <v>239</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="s">
+        <v>264</v>
+      </c>
+      <c r="U7">
         <v>6.5</v>
       </c>
-      <c r="U7" t="s">
-        <v>255</v>
-      </c>
-      <c r="V7">
+      <c r="V7" t="s">
+        <v>280</v>
+      </c>
+      <c r="W7">
         <v>3</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>2</v>
       </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
       <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
         <v>5</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>3</v>
       </c>
-      <c r="AB7">
-        <v>1</v>
-      </c>
       <c r="AC7">
         <v>1</v>
       </c>
@@ -2245,22 +2335,22 @@
         <v>1</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>0</v>
       </c>
-      <c r="AJ7">
-        <v>1</v>
+      <c r="AG7">
+        <v>0</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7">
         <v>0</v>
@@ -2272,9 +2362,9 @@
         <v>0</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
-      </c>
-      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
         <v>1</v>
       </c>
       <c r="AT7">
@@ -2284,54 +2374,57 @@
         <v>1</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW7">
         <v>0</v>
       </c>
       <c r="AX7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7">
+        <v>1</v>
+      </c>
+      <c r="BD7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:56">
       <c r="A8" s="2">
         <v>43880.53032233796</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I8">
         <v>4.69</v>
@@ -2346,61 +2439,61 @@
         <v>162</v>
       </c>
       <c r="O8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="R8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="S8" t="s">
         <v>240</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="s">
+        <v>265</v>
+      </c>
+      <c r="U8">
         <v>8</v>
       </c>
-      <c r="U8" t="s">
-        <v>252</v>
-      </c>
-      <c r="V8">
-        <v>4</v>
+      <c r="V8" t="s">
+        <v>277</v>
       </c>
       <c r="W8">
         <v>4</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
         <v>3</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>2</v>
       </c>
-      <c r="AA8" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB8">
-        <v>1</v>
+      <c r="AB8" t="s">
+        <v>295</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>0</v>
       </c>
-      <c r="AJ8">
-        <v>1</v>
+      <c r="AG8">
+        <v>0</v>
       </c>
       <c r="AK8">
         <v>1</v>
@@ -2409,21 +2502,21 @@
         <v>1</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8">
         <v>0</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
-      </c>
-      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
         <v>1</v>
       </c>
       <c r="AT8">
@@ -2442,45 +2535,48 @@
         <v>1</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8">
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC8">
         <v>0</v>
       </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:56">
       <c r="A9" s="2">
         <v>43880.5383684375</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I9">
         <v>3.95</v>
@@ -2501,44 +2597,44 @@
         <v>122</v>
       </c>
       <c r="O9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="R9" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="S9" t="s">
-        <v>239</v>
-      </c>
-      <c r="T9">
+        <v>241</v>
+      </c>
+      <c r="T9" t="s">
+        <v>264</v>
+      </c>
+      <c r="U9">
         <v>8</v>
       </c>
-      <c r="U9" t="s">
-        <v>256</v>
-      </c>
-      <c r="V9">
-        <v>3</v>
+      <c r="V9" t="s">
+        <v>281</v>
       </c>
       <c r="W9">
         <v>3</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
         <v>2</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>3</v>
       </c>
-      <c r="AB9">
-        <v>1</v>
-      </c>
       <c r="AC9">
         <v>1</v>
       </c>
@@ -2546,13 +2642,13 @@
         <v>1</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>0</v>
       </c>
-      <c r="AJ9">
-        <v>1</v>
+      <c r="AG9">
+        <v>0</v>
       </c>
       <c r="AK9">
         <v>1</v>
@@ -2561,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9">
         <v>0</v>
@@ -2575,64 +2671,67 @@
       <c r="AQ9">
         <v>0</v>
       </c>
-      <c r="AS9">
-        <v>1</v>
+      <c r="AR9">
+        <v>0</v>
       </c>
       <c r="AT9">
         <v>1</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9">
         <v>1</v>
       </c>
       <c r="BB9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:56">
       <c r="A10" s="2">
         <v>43880.58054016204</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I10">
         <v>3.6</v>
@@ -2653,61 +2752,61 @@
         <v>132</v>
       </c>
       <c r="O10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R10" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="S10" t="s">
-        <v>241</v>
-      </c>
-      <c r="T10">
+        <v>242</v>
+      </c>
+      <c r="T10" t="s">
+        <v>266</v>
+      </c>
+      <c r="U10">
         <v>8</v>
       </c>
-      <c r="U10" t="s">
-        <v>257</v>
-      </c>
-      <c r="V10">
+      <c r="V10" t="s">
+        <v>282</v>
+      </c>
+      <c r="W10">
         <v>5</v>
       </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
       <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
         <v>3</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>5</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>4</v>
       </c>
-      <c r="AB10">
-        <v>1</v>
-      </c>
       <c r="AC10">
         <v>1</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
         <v>0</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>1</v>
@@ -2727,17 +2826,17 @@
       <c r="AQ10">
         <v>1</v>
       </c>
-      <c r="AS10">
+      <c r="AR10">
         <v>1</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10">
         <v>0</v>
       </c>
       <c r="AV10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW10">
         <v>1</v>
@@ -2755,36 +2854,39 @@
         <v>1</v>
       </c>
       <c r="BB10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:56">
       <c r="A11" s="2">
         <v>43880.58108253472</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I11">
         <v>3.4</v>
@@ -2799,73 +2901,73 @@
         <v>1240</v>
       </c>
       <c r="O11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R11" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="S11" t="s">
-        <v>241</v>
-      </c>
-      <c r="T11">
+        <v>243</v>
+      </c>
+      <c r="T11" t="s">
+        <v>266</v>
+      </c>
+      <c r="U11">
         <v>6</v>
       </c>
-      <c r="U11" t="s">
-        <v>258</v>
-      </c>
-      <c r="V11">
+      <c r="V11" t="s">
+        <v>283</v>
+      </c>
+      <c r="W11">
         <v>4</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>3</v>
-      </c>
-      <c r="X11">
-        <v>4</v>
       </c>
       <c r="Y11">
         <v>4</v>
       </c>
       <c r="Z11">
+        <v>4</v>
+      </c>
+      <c r="AA11">
         <v>2</v>
       </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
       <c r="AC11">
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>0</v>
       </c>
-      <c r="AJ11">
-        <v>1</v>
+      <c r="AG11">
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11">
         <v>0</v>
@@ -2873,32 +2975,32 @@
       <c r="AQ11">
         <v>0</v>
       </c>
-      <c r="AS11">
-        <v>1</v>
+      <c r="AR11">
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11">
         <v>0</v>
       </c>
       <c r="AV11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11">
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB11">
         <v>1</v>
@@ -2906,31 +3008,34 @@
       <c r="BC11">
         <v>1</v>
       </c>
+      <c r="BD11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:55">
+    <row r="12" spans="1:56">
       <c r="A12" s="2">
         <v>43880.5853946875</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I12">
         <v>2.8</v>
@@ -2945,46 +3050,46 @@
         <v>1360</v>
       </c>
       <c r="O12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q12" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="R12" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="S12" t="s">
-        <v>242</v>
-      </c>
-      <c r="T12">
+        <v>229</v>
+      </c>
+      <c r="T12" t="s">
+        <v>267</v>
+      </c>
+      <c r="U12">
         <v>5</v>
       </c>
-      <c r="U12" t="s">
-        <v>254</v>
-      </c>
-      <c r="V12">
+      <c r="V12" t="s">
+        <v>279</v>
+      </c>
+      <c r="W12">
         <v>3</v>
       </c>
-      <c r="W12">
-        <v>1</v>
-      </c>
       <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
         <v>2</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>3</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>4</v>
       </c>
-      <c r="AA12" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB12">
-        <v>1</v>
+      <c r="AB12" t="s">
+        <v>296</v>
       </c>
       <c r="AC12">
         <v>1</v>
@@ -2998,41 +3103,41 @@
       <c r="AF12">
         <v>1</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
+      <c r="AG12">
+        <v>1</v>
       </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
         <v>1</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN12">
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>0</v>
       </c>
-      <c r="AS12">
-        <v>1</v>
+      <c r="AR12">
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12">
         <v>0</v>
       </c>
       <c r="AV12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW12">
         <v>1</v>
@@ -3044,42 +3149,45 @@
         <v>1</v>
       </c>
       <c r="AZ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:55">
+    <row r="13" spans="1:56">
       <c r="A13" s="2">
         <v>43880.59127829861</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I13">
         <v>3.6</v>
@@ -3094,41 +3202,41 @@
         <v>1320</v>
       </c>
       <c r="O13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="R13" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="S13" t="s">
-        <v>238</v>
-      </c>
-      <c r="T13">
+        <v>220</v>
+      </c>
+      <c r="T13" t="s">
+        <v>263</v>
+      </c>
+      <c r="U13">
         <v>8</v>
       </c>
-      <c r="U13" t="s">
-        <v>254</v>
-      </c>
-      <c r="V13">
+      <c r="V13" t="s">
+        <v>279</v>
+      </c>
+      <c r="W13">
         <v>3</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>4</v>
       </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
       <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
         <v>3</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>4</v>
       </c>
-      <c r="AB13">
-        <v>1</v>
-      </c>
       <c r="AC13">
         <v>1</v>
       </c>
@@ -3139,19 +3247,19 @@
         <v>1</v>
       </c>
       <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN13">
         <v>0</v>
@@ -3165,8 +3273,8 @@
       <c r="AQ13">
         <v>0</v>
       </c>
-      <c r="AS13">
-        <v>1</v>
+      <c r="AR13">
+        <v>0</v>
       </c>
       <c r="AT13">
         <v>1</v>
@@ -3178,51 +3286,54 @@
         <v>1</v>
       </c>
       <c r="AW13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13">
         <v>1</v>
       </c>
       <c r="BB13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:55">
+    <row r="14" spans="1:56">
       <c r="A14" s="2">
         <v>43880.59630121528</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14">
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I14">
         <v>3.95</v>
@@ -3234,61 +3345,61 @@
         <v>1400</v>
       </c>
       <c r="O14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q14" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="R14" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="S14" t="s">
-        <v>243</v>
-      </c>
-      <c r="T14">
+        <v>244</v>
+      </c>
+      <c r="T14" t="s">
+        <v>268</v>
+      </c>
+      <c r="U14">
         <v>4</v>
       </c>
-      <c r="U14" t="s">
-        <v>258</v>
-      </c>
-      <c r="V14">
+      <c r="V14" t="s">
+        <v>283</v>
+      </c>
+      <c r="W14">
         <v>3</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>4</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>5</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>3</v>
       </c>
-      <c r="Z14">
-        <v>1</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>272</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>297</v>
       </c>
       <c r="AC14">
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14">
         <v>1</v>
       </c>
       <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
       </c>
       <c r="AK14">
         <v>1</v>
@@ -3297,13 +3408,13 @@
         <v>1</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP14">
         <v>0</v>
@@ -3311,11 +3422,11 @@
       <c r="AQ14">
         <v>0</v>
       </c>
-      <c r="AS14">
+      <c r="AR14">
         <v>0</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>1</v>
@@ -3324,19 +3435,19 @@
         <v>1</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14">
         <v>1</v>
       </c>
       <c r="AZ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14">
         <v>1</v>
@@ -3344,31 +3455,34 @@
       <c r="BC14">
         <v>1</v>
       </c>
+      <c r="BD14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15" spans="1:56">
       <c r="A15" s="2">
         <v>43880.61786403936</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15">
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I15">
         <v>3.1</v>
@@ -3380,57 +3494,54 @@
         <v>1110</v>
       </c>
       <c r="O15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P15" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="R15" t="s">
         <v>220</v>
       </c>
       <c r="S15" t="s">
-        <v>239</v>
-      </c>
-      <c r="T15">
+        <v>245</v>
+      </c>
+      <c r="T15" t="s">
+        <v>264</v>
+      </c>
+      <c r="U15">
         <v>7</v>
       </c>
-      <c r="U15" t="s">
-        <v>258</v>
-      </c>
-      <c r="V15">
-        <v>3</v>
+      <c r="V15" t="s">
+        <v>283</v>
       </c>
       <c r="W15">
         <v>3</v>
       </c>
       <c r="X15">
+        <v>3</v>
+      </c>
+      <c r="Y15">
         <v>2</v>
-      </c>
-      <c r="Y15">
-        <v>3</v>
       </c>
       <c r="Z15">
         <v>3</v>
       </c>
-      <c r="AB15">
-        <v>1</v>
+      <c r="AA15">
+        <v>3</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15">
         <v>0</v>
       </c>
       <c r="AE15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
+        <v>1</v>
+      </c>
+      <c r="AG15">
         <v>0</v>
       </c>
       <c r="AK15">
@@ -3446,25 +3557,25 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>0</v>
       </c>
-      <c r="AS15">
-        <v>1</v>
+      <c r="AR15">
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15">
         <v>0</v>
       </c>
       <c r="AV15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW15">
         <v>1</v>
@@ -3476,42 +3587,45 @@
         <v>1</v>
       </c>
       <c r="AZ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC15">
         <v>0</v>
       </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16" spans="1:56">
       <c r="A16" s="2">
         <v>43880.63591928241</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16">
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I16">
         <v>3.69</v>
@@ -3529,46 +3643,46 @@
         <v>29</v>
       </c>
       <c r="O16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="R16" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="S16" t="s">
-        <v>239</v>
-      </c>
-      <c r="T16">
+        <v>219</v>
+      </c>
+      <c r="T16" t="s">
+        <v>264</v>
+      </c>
+      <c r="U16">
         <v>9.5</v>
       </c>
-      <c r="U16" t="s">
-        <v>253</v>
-      </c>
-      <c r="V16">
+      <c r="V16" t="s">
+        <v>278</v>
+      </c>
+      <c r="W16">
         <v>2</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>4</v>
       </c>
-      <c r="X16">
-        <v>1</v>
-      </c>
       <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
         <v>3</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>2</v>
       </c>
-      <c r="AA16" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB16">
-        <v>1</v>
+      <c r="AB16" t="s">
+        <v>298</v>
       </c>
       <c r="AC16">
         <v>1</v>
@@ -3577,25 +3691,25 @@
         <v>1</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
       </c>
-      <c r="AJ16">
+      <c r="AG16">
         <v>0</v>
       </c>
       <c r="AK16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16">
         <v>0</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO16">
         <v>1</v>
@@ -3604,10 +3718,10 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
       </c>
       <c r="AT16">
         <v>1</v>
@@ -3619,48 +3733,51 @@
         <v>1</v>
       </c>
       <c r="AW16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16">
         <v>1</v>
       </c>
       <c r="AZ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:55">
+    <row r="17" spans="1:56">
       <c r="A17" s="2">
         <v>43880.65936678241</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I17">
         <v>3.5</v>
@@ -3672,49 +3789,49 @@
         <v>1110</v>
       </c>
       <c r="O17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q17" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="R17" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="S17" t="s">
-        <v>239</v>
-      </c>
-      <c r="T17">
+        <v>246</v>
+      </c>
+      <c r="T17" t="s">
+        <v>264</v>
+      </c>
+      <c r="U17">
         <v>6.75</v>
       </c>
-      <c r="U17" t="s">
-        <v>259</v>
-      </c>
-      <c r="V17">
-        <v>1</v>
+      <c r="V17" t="s">
+        <v>284</v>
       </c>
       <c r="W17">
         <v>1</v>
       </c>
       <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
         <v>3</v>
-      </c>
-      <c r="Y17">
-        <v>2</v>
       </c>
       <c r="Z17">
         <v>2</v>
       </c>
-      <c r="AB17">
-        <v>0</v>
+      <c r="AA17">
+        <v>2</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -3722,14 +3839,14 @@
       <c r="AF17">
         <v>0</v>
       </c>
-      <c r="AJ17">
+      <c r="AG17">
         <v>0</v>
       </c>
       <c r="AK17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -3738,16 +3855,16 @@
         <v>0</v>
       </c>
       <c r="AO17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
         <v>0</v>
       </c>
-      <c r="AS17">
-        <v>1</v>
+      <c r="AR17">
+        <v>0</v>
       </c>
       <c r="AT17">
         <v>1</v>
@@ -3768,42 +3885,45 @@
         <v>1</v>
       </c>
       <c r="AZ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:55">
+    <row r="18" spans="1:56">
       <c r="A18" s="2">
         <v>43880.67517905092</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18">
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I18">
         <v>3.9</v>
@@ -3821,46 +3941,46 @@
         <v>150</v>
       </c>
       <c r="O18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q18" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="R18" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="S18" t="s">
-        <v>235</v>
-      </c>
-      <c r="T18">
+        <v>221</v>
+      </c>
+      <c r="T18" t="s">
+        <v>260</v>
+      </c>
+      <c r="U18">
         <v>9</v>
       </c>
-      <c r="U18" t="s">
-        <v>260</v>
-      </c>
-      <c r="V18">
+      <c r="V18" t="s">
+        <v>285</v>
+      </c>
+      <c r="W18">
         <v>4</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>2</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>4</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>2</v>
       </c>
-      <c r="Z18">
-        <v>1</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
+      <c r="AA18">
+        <v>1</v>
       </c>
       <c r="AC18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -3871,17 +3991,17 @@
       <c r="AF18">
         <v>1</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
+      <c r="AG18">
+        <v>1</v>
       </c>
       <c r="AK18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18">
         <v>0</v>
@@ -3890,16 +4010,16 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -3911,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="AX18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY18">
         <v>1</v>
       </c>
       <c r="AZ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18">
         <v>0</v>
@@ -3926,33 +4046,36 @@
         <v>0</v>
       </c>
       <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:55">
+    <row r="19" spans="1:56">
       <c r="A19" s="2">
         <v>43880.68786679398</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I19">
         <v>3.8</v>
@@ -3970,34 +4093,34 @@
         <v>29</v>
       </c>
       <c r="O19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q19" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="R19" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="S19" t="s">
-        <v>235</v>
-      </c>
-      <c r="T19">
+        <v>222</v>
+      </c>
+      <c r="T19" t="s">
+        <v>260</v>
+      </c>
+      <c r="U19">
         <v>7</v>
       </c>
-      <c r="U19" t="s">
-        <v>254</v>
-      </c>
-      <c r="V19">
-        <v>2</v>
+      <c r="V19" t="s">
+        <v>279</v>
       </c>
       <c r="W19">
         <v>2</v>
       </c>
       <c r="X19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y19">
         <v>4</v>
@@ -4005,14 +4128,14 @@
       <c r="Z19">
         <v>4</v>
       </c>
-      <c r="AA19" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
+      <c r="AA19">
+        <v>4</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>299</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -4021,16 +4144,16 @@
         <v>1</v>
       </c>
       <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
         <v>0</v>
       </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM19">
         <v>0</v>
@@ -4039,25 +4162,25 @@
         <v>0</v>
       </c>
       <c r="AO19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>0</v>
       </c>
-      <c r="AS19">
-        <v>1</v>
+      <c r="AR19">
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19">
         <v>0</v>
       </c>
       <c r="AV19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW19">
         <v>1</v>
@@ -4066,45 +4189,48 @@
         <v>1</v>
       </c>
       <c r="AY19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19">
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:55">
+    <row r="20" spans="1:56">
       <c r="A20" s="2">
         <v>43880.76043457176</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I20">
         <v>3.2</v>
@@ -4119,39 +4245,39 @@
         <v>26</v>
       </c>
       <c r="O20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q20" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="R20" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="S20" t="s">
-        <v>238</v>
-      </c>
-      <c r="T20">
+        <v>229</v>
+      </c>
+      <c r="T20" t="s">
+        <v>263</v>
+      </c>
+      <c r="U20">
         <v>7</v>
       </c>
-      <c r="U20" t="s">
-        <v>252</v>
-      </c>
-      <c r="V20">
+      <c r="V20" t="s">
+        <v>277</v>
+      </c>
+      <c r="W20">
         <v>3</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>4</v>
-      </c>
-      <c r="X20">
-        <v>3</v>
       </c>
       <c r="Y20">
         <v>3</v>
       </c>
       <c r="Z20">
-        <v>1</v>
-      </c>
-      <c r="AB20">
+        <v>3</v>
+      </c>
+      <c r="AA20">
         <v>1</v>
       </c>
       <c r="AC20">
@@ -4161,25 +4287,25 @@
         <v>1</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
       </c>
-      <c r="AJ20">
-        <v>1</v>
+      <c r="AG20">
+        <v>0</v>
       </c>
       <c r="AK20">
         <v>1</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO20">
         <v>0</v>
@@ -4190,20 +4316,20 @@
       <c r="AQ20">
         <v>0</v>
       </c>
-      <c r="AS20">
-        <v>1</v>
+      <c r="AR20">
+        <v>0</v>
       </c>
       <c r="AT20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV20">
         <v>1</v>
       </c>
       <c r="AW20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX20">
         <v>0</v>
@@ -4212,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="AZ20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA20">
         <v>1</v>
@@ -4223,31 +4349,34 @@
       <c r="BC20">
         <v>1</v>
       </c>
+      <c r="BD20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:55">
+    <row r="21" spans="1:56">
       <c r="A21" s="2">
         <v>43880.7613941088</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I21">
         <v>4.38</v>
@@ -4262,46 +4391,46 @@
         <v>1180</v>
       </c>
       <c r="O21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q21" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="R21" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="S21" t="s">
-        <v>244</v>
-      </c>
-      <c r="T21">
+        <v>247</v>
+      </c>
+      <c r="T21" t="s">
+        <v>269</v>
+      </c>
+      <c r="U21">
         <v>8.25</v>
       </c>
-      <c r="U21" t="s">
-        <v>254</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
+      <c r="V21" t="s">
+        <v>279</v>
       </c>
       <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
         <v>4</v>
       </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
       <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
         <v>3</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>4</v>
       </c>
-      <c r="AA21" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB21">
-        <v>1</v>
+      <c r="AB21" t="s">
+        <v>294</v>
       </c>
       <c r="AC21">
         <v>1</v>
@@ -4313,13 +4442,13 @@
         <v>1</v>
       </c>
       <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
+        <v>1</v>
+      </c>
+      <c r="AG21">
         <v>0</v>
       </c>
       <c r="AK21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21">
         <v>1</v>
@@ -4328,18 +4457,18 @@
         <v>1</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>0</v>
       </c>
-      <c r="AS21">
+      <c r="AR21">
         <v>0</v>
       </c>
       <c r="AT21">
@@ -4349,10 +4478,10 @@
         <v>0</v>
       </c>
       <c r="AV21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX21">
         <v>0</v>
@@ -4370,33 +4499,36 @@
         <v>0</v>
       </c>
       <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:55">
+    <row r="22" spans="1:56">
       <c r="A22" s="2">
         <v>43880.94679583333</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22">
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I22">
         <v>4.3</v>
@@ -4411,60 +4543,60 @@
         <v>34</v>
       </c>
       <c r="O22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q22" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="R22" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="S22" t="s">
-        <v>238</v>
-      </c>
-      <c r="T22">
+        <v>220</v>
+      </c>
+      <c r="T22" t="s">
+        <v>263</v>
+      </c>
+      <c r="U22">
         <v>7.333333333333333</v>
       </c>
-      <c r="U22" t="s">
-        <v>261</v>
-      </c>
-      <c r="V22">
+      <c r="V22" t="s">
+        <v>286</v>
+      </c>
+      <c r="W22">
         <v>4</v>
       </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
       <c r="X22">
         <v>1</v>
       </c>
       <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
         <v>2</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>3</v>
       </c>
-      <c r="AA22" t="s">
-        <v>275</v>
-      </c>
-      <c r="AB22">
-        <v>1</v>
+      <c r="AB22" t="s">
+        <v>300</v>
       </c>
       <c r="AC22">
         <v>1</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
+        <v>1</v>
+      </c>
+      <c r="AG22">
         <v>0</v>
       </c>
       <c r="AK22">
@@ -4480,40 +4612,40 @@
         <v>0</v>
       </c>
       <c r="AO22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
         <v>0</v>
       </c>
-      <c r="AS22">
-        <v>1</v>
+      <c r="AR22">
+        <v>0</v>
       </c>
       <c r="AT22">
         <v>1</v>
       </c>
       <c r="AU22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ22">
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB22">
         <v>1</v>
@@ -4521,31 +4653,34 @@
       <c r="BC22">
         <v>1</v>
       </c>
+      <c r="BD22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:55">
+    <row r="23" spans="1:56">
       <c r="A23" s="2">
         <v>43880.95560878472</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I23">
         <v>3.87</v>
@@ -4560,49 +4695,49 @@
         <v>29</v>
       </c>
       <c r="O23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q23" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="R23" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="S23" t="s">
-        <v>239</v>
-      </c>
-      <c r="T23">
+        <v>248</v>
+      </c>
+      <c r="T23" t="s">
+        <v>264</v>
+      </c>
+      <c r="U23">
         <v>6.5</v>
       </c>
-      <c r="U23" t="s">
-        <v>255</v>
-      </c>
-      <c r="V23">
+      <c r="V23" t="s">
+        <v>280</v>
+      </c>
+      <c r="W23">
         <v>4</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>2</v>
-      </c>
-      <c r="X23">
-        <v>3</v>
       </c>
       <c r="Y23">
         <v>3</v>
       </c>
       <c r="Z23">
-        <v>1</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>276</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>301</v>
       </c>
       <c r="AC23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -4613,38 +4748,38 @@
       <c r="AF23">
         <v>1</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
+      <c r="AG23">
+        <v>1</v>
       </c>
       <c r="AK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23">
         <v>1</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ23">
         <v>1</v>
       </c>
-      <c r="AS23">
+      <c r="AR23">
         <v>1</v>
       </c>
       <c r="AT23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV23">
         <v>1</v>
@@ -4653,48 +4788,51 @@
         <v>1</v>
       </c>
       <c r="AX23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY23">
         <v>0</v>
       </c>
       <c r="AZ23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC23">
         <v>1</v>
       </c>
+      <c r="BD23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:55">
+    <row r="24" spans="1:56">
       <c r="A24" s="2">
         <v>43880.97153034723</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24">
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I24">
         <v>2.9</v>
@@ -4712,76 +4850,76 @@
         <v>132</v>
       </c>
       <c r="O24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q24" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="R24" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="S24" t="s">
-        <v>235</v>
-      </c>
-      <c r="T24">
+        <v>226</v>
+      </c>
+      <c r="T24" t="s">
+        <v>260</v>
+      </c>
+      <c r="U24">
         <v>7</v>
       </c>
-      <c r="U24" t="s">
-        <v>254</v>
-      </c>
-      <c r="V24">
+      <c r="V24" t="s">
+        <v>279</v>
+      </c>
+      <c r="W24">
         <v>4</v>
       </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
       <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
         <v>4</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>3</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>4</v>
       </c>
-      <c r="AA24" t="s">
-        <v>276</v>
-      </c>
-      <c r="AB24">
-        <v>1</v>
+      <c r="AB24" t="s">
+        <v>301</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24">
         <v>0</v>
       </c>
       <c r="AE24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
+        <v>1</v>
+      </c>
+      <c r="AG24">
         <v>0</v>
       </c>
       <c r="AK24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM24">
         <v>0</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP24">
         <v>0</v>
@@ -4789,20 +4927,20 @@
       <c r="AQ24">
         <v>0</v>
       </c>
-      <c r="AS24">
-        <v>1</v>
+      <c r="AR24">
+        <v>0</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU24">
         <v>0</v>
       </c>
       <c r="AV24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX24">
         <v>0</v>
@@ -4814,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB24">
         <v>1</v>
@@ -4822,31 +4960,34 @@
       <c r="BC24">
         <v>1</v>
       </c>
+      <c r="BD24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:55">
+    <row r="25" spans="1:56">
       <c r="A25" s="2">
         <v>43881.31725171296</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25">
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I25">
         <v>4.2</v>
@@ -4861,43 +5002,43 @@
         <v>1190</v>
       </c>
       <c r="O25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q25" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="R25" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="S25" t="s">
-        <v>242</v>
-      </c>
-      <c r="T25">
+        <v>225</v>
+      </c>
+      <c r="T25" t="s">
+        <v>267</v>
+      </c>
+      <c r="U25">
         <v>8</v>
       </c>
-      <c r="U25" t="s">
-        <v>262</v>
-      </c>
-      <c r="V25">
+      <c r="V25" t="s">
+        <v>287</v>
+      </c>
+      <c r="W25">
         <v>2</v>
       </c>
-      <c r="W25">
-        <v>1</v>
-      </c>
       <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
         <v>3</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>4</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>3</v>
       </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
       <c r="AC25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -4906,19 +5047,19 @@
         <v>1</v>
       </c>
       <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
+        <v>1</v>
+      </c>
+      <c r="AG25">
         <v>0</v>
       </c>
       <c r="AK25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25">
         <v>1</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN25">
         <v>0</v>
@@ -4927,69 +5068,72 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AS25">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
       </c>
       <c r="AT25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>0</v>
       </c>
       <c r="AV25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25">
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:55">
+    <row r="26" spans="1:56">
       <c r="A26" s="2">
         <v>43881.36370589121</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I26">
         <v>3.98</v>
@@ -5004,46 +5148,46 @@
         <v>1230</v>
       </c>
       <c r="O26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q26" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="R26" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="S26" t="s">
-        <v>240</v>
-      </c>
-      <c r="T26">
+        <v>249</v>
+      </c>
+      <c r="T26" t="s">
+        <v>265</v>
+      </c>
+      <c r="U26">
         <v>9</v>
       </c>
-      <c r="U26" t="s">
-        <v>254</v>
-      </c>
-      <c r="V26">
+      <c r="V26" t="s">
+        <v>279</v>
+      </c>
+      <c r="W26">
         <v>4</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>3</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>4</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>3</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>2</v>
       </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
       <c r="AC26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5054,17 +5198,17 @@
       <c r="AF26">
         <v>1</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
+      <c r="AG26">
+        <v>1</v>
       </c>
       <c r="AK26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26">
         <v>1</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN26">
         <v>0</v>
@@ -5078,8 +5222,8 @@
       <c r="AQ26">
         <v>0</v>
       </c>
-      <c r="AS26">
-        <v>1</v>
+      <c r="AR26">
+        <v>0</v>
       </c>
       <c r="AT26">
         <v>1</v>
@@ -5097,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="AY26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ26">
         <v>0</v>
@@ -5106,36 +5250,39 @@
         <v>0</v>
       </c>
       <c r="BB26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC26">
         <v>1</v>
       </c>
+      <c r="BD26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:55">
+    <row r="27" spans="1:56">
       <c r="A27" s="2">
         <v>43881.3880293287</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27">
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I27">
         <v>4.37</v>
@@ -5150,61 +5297,61 @@
         <v>1380</v>
       </c>
       <c r="O27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q27" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="R27" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S27" t="s">
-        <v>236</v>
-      </c>
-      <c r="T27">
+        <v>250</v>
+      </c>
+      <c r="T27" t="s">
+        <v>261</v>
+      </c>
+      <c r="U27">
         <v>10</v>
       </c>
-      <c r="U27" t="s">
-        <v>254</v>
-      </c>
-      <c r="V27">
+      <c r="V27" t="s">
+        <v>279</v>
+      </c>
+      <c r="W27">
         <v>4</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>2</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>4</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>3</v>
       </c>
-      <c r="Z27">
-        <v>1</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
+      <c r="AA27">
+        <v>1</v>
       </c>
       <c r="AC27">
         <v>0</v>
       </c>
       <c r="AD27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27">
         <v>1</v>
       </c>
       <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
+        <v>1</v>
+      </c>
+      <c r="AG27">
         <v>0</v>
       </c>
       <c r="AK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27">
         <v>1</v>
@@ -5213,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -5224,8 +5371,8 @@
       <c r="AQ27">
         <v>0</v>
       </c>
-      <c r="AS27">
-        <v>1</v>
+      <c r="AR27">
+        <v>0</v>
       </c>
       <c r="AT27">
         <v>1</v>
@@ -5243,42 +5390,45 @@
         <v>1</v>
       </c>
       <c r="AY27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA27">
         <v>1</v>
       </c>
       <c r="BB27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC27">
         <v>0</v>
       </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:55">
+    <row r="28" spans="1:56">
       <c r="A28" s="2">
         <v>43882.66339236111</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28">
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I28">
         <v>4.52</v>
@@ -5290,43 +5440,43 @@
         <v>1280</v>
       </c>
       <c r="O28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q28" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="R28" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="S28" t="s">
-        <v>240</v>
-      </c>
-      <c r="T28">
+        <v>251</v>
+      </c>
+      <c r="T28" t="s">
+        <v>265</v>
+      </c>
+      <c r="U28">
         <v>7.5</v>
       </c>
-      <c r="U28" t="s">
-        <v>258</v>
-      </c>
-      <c r="V28">
+      <c r="V28" t="s">
+        <v>283</v>
+      </c>
+      <c r="W28">
         <v>5</v>
-      </c>
-      <c r="W28">
-        <v>3</v>
       </c>
       <c r="X28">
         <v>3</v>
       </c>
       <c r="Y28">
+        <v>3</v>
+      </c>
+      <c r="Z28">
         <v>5</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>2</v>
       </c>
-      <c r="AA28" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB28">
-        <v>1</v>
+      <c r="AB28" t="s">
+        <v>302</v>
       </c>
       <c r="AC28">
         <v>1</v>
@@ -5338,25 +5488,25 @@
         <v>1</v>
       </c>
       <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
+        <v>1</v>
+      </c>
+      <c r="AG28">
         <v>0</v>
       </c>
       <c r="AK28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28">
         <v>1</v>
       </c>
       <c r="AM28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP28">
         <v>0</v>
@@ -5364,64 +5514,67 @@
       <c r="AQ28">
         <v>0</v>
       </c>
-      <c r="AS28">
-        <v>1</v>
+      <c r="AR28">
+        <v>0</v>
       </c>
       <c r="AT28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU28">
         <v>0</v>
       </c>
       <c r="AV28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW28">
         <v>1</v>
       </c>
       <c r="AX28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY28">
         <v>0</v>
       </c>
       <c r="AZ28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA28">
         <v>1</v>
       </c>
       <c r="BB28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:55">
+    <row r="29" spans="1:56">
       <c r="A29" s="2">
         <v>43894.49297832176</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29">
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I29">
         <v>3.5</v>
@@ -5436,85 +5589,82 @@
         <v>1350</v>
       </c>
       <c r="O29" t="s">
-        <v>145</v>
-      </c>
-      <c r="S29" t="s">
-        <v>236</v>
-      </c>
-      <c r="T29">
+        <v>146</v>
+      </c>
+      <c r="T29" t="s">
+        <v>261</v>
+      </c>
+      <c r="U29">
         <v>8</v>
       </c>
-      <c r="U29" t="s">
-        <v>255</v>
-      </c>
-      <c r="V29">
-        <v>4</v>
+      <c r="V29" t="s">
+        <v>280</v>
       </c>
       <c r="W29">
         <v>4</v>
       </c>
       <c r="X29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
         <v>5</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>4</v>
       </c>
-      <c r="AA29" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB29">
-        <v>1</v>
+      <c r="AB29" t="s">
+        <v>298</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29">
         <v>0</v>
       </c>
       <c r="AE29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
         <v>5</v>
       </c>
-      <c r="AH29" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
+      <c r="AI29" t="s">
+        <v>309</v>
       </c>
       <c r="AJ29">
         <v>0</v>
       </c>
       <c r="AK29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN29">
         <v>1</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ29">
         <v>1</v>
       </c>
       <c r="AR29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS29">
         <v>0</v>
@@ -5529,13 +5679,13 @@
         <v>0</v>
       </c>
       <c r="AW29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ29">
         <v>1</v>
@@ -5547,33 +5697,36 @@
         <v>1</v>
       </c>
       <c r="BC29">
+        <v>1</v>
+      </c>
+      <c r="BD29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:55">
+    <row r="30" spans="1:56">
       <c r="A30" s="2">
         <v>43894.51265791667</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30">
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I30">
         <v>4</v>
@@ -5582,46 +5735,43 @@
         <v>4</v>
       </c>
       <c r="O30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P30" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="R30" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="S30" t="s">
-        <v>238</v>
-      </c>
-      <c r="T30">
+        <v>221</v>
+      </c>
+      <c r="T30" t="s">
+        <v>263</v>
+      </c>
+      <c r="U30">
         <v>9</v>
       </c>
-      <c r="U30" t="s">
-        <v>253</v>
-      </c>
-      <c r="V30">
-        <v>4</v>
+      <c r="V30" t="s">
+        <v>278</v>
       </c>
       <c r="W30">
         <v>4</v>
       </c>
       <c r="X30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
         <v>3</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>4</v>
       </c>
-      <c r="AA30" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB30">
-        <v>1</v>
+      <c r="AB30" t="s">
+        <v>296</v>
       </c>
       <c r="AC30">
         <v>1</v>
@@ -5630,19 +5780,19 @@
         <v>1</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
       </c>
       <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
         <v>3</v>
       </c>
-      <c r="AH30" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
+      <c r="AI30" t="s">
+        <v>309</v>
       </c>
       <c r="AJ30">
         <v>0</v>
@@ -5663,16 +5813,16 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT30">
         <v>0</v>
@@ -5681,54 +5831,57 @@
         <v>0</v>
       </c>
       <c r="AV30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY30">
         <v>1</v>
       </c>
       <c r="AZ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC30">
+        <v>0</v>
+      </c>
+      <c r="BD30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:55">
+    <row r="31" spans="1:56">
       <c r="A31" s="2">
         <v>43894.52020304398</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C31">
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I31">
         <v>3.77</v>
@@ -5746,49 +5899,46 @@
         <v>31</v>
       </c>
       <c r="O31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P31" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="R31" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="S31" t="s">
-        <v>240</v>
-      </c>
-      <c r="T31">
+        <v>247</v>
+      </c>
+      <c r="T31" t="s">
+        <v>265</v>
+      </c>
+      <c r="U31">
         <v>10</v>
       </c>
-      <c r="U31" t="s">
-        <v>253</v>
-      </c>
-      <c r="V31">
+      <c r="V31" t="s">
+        <v>278</v>
+      </c>
+      <c r="W31">
         <v>2</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>4</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>3</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>2</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>4</v>
       </c>
-      <c r="AA31" t="s">
-        <v>278</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
+      <c r="AB31" t="s">
+        <v>303</v>
       </c>
       <c r="AC31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31">
         <v>1</v>
@@ -5797,19 +5947,19 @@
         <v>1</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
         <v>4</v>
       </c>
-      <c r="AH31" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
+      <c r="AI31" t="s">
+        <v>309</v>
       </c>
       <c r="AJ31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31">
         <v>1</v>
@@ -5818,13 +5968,13 @@
         <v>1</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP31">
         <v>0</v>
@@ -5836,10 +5986,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -5848,10 +5998,10 @@
         <v>0</v>
       </c>
       <c r="AW31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY31">
         <v>0</v>
@@ -5860,39 +6010,42 @@
         <v>0</v>
       </c>
       <c r="BA31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:55">
+    <row r="32" spans="1:56">
       <c r="A32" s="2">
         <v>43894.52105283565</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C32">
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I32">
         <v>3.34</v>
@@ -5907,34 +6060,31 @@
         <v>141</v>
       </c>
       <c r="O32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P32" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="R32" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="S32" t="s">
-        <v>245</v>
-      </c>
-      <c r="T32">
+        <v>220</v>
+      </c>
+      <c r="T32" t="s">
+        <v>270</v>
+      </c>
+      <c r="U32">
         <v>5.5</v>
       </c>
-      <c r="U32" t="s">
-        <v>252</v>
-      </c>
-      <c r="V32">
+      <c r="V32" t="s">
+        <v>277</v>
+      </c>
+      <c r="W32">
         <v>4</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>3</v>
-      </c>
-      <c r="X32">
-        <v>4</v>
       </c>
       <c r="Y32">
         <v>4</v>
@@ -5942,11 +6092,11 @@
       <c r="Z32">
         <v>4</v>
       </c>
-      <c r="AA32" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB32">
-        <v>1</v>
+      <c r="AA32">
+        <v>4</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>296</v>
       </c>
       <c r="AC32">
         <v>1</v>
@@ -5958,25 +6108,25 @@
         <v>1</v>
       </c>
       <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI32">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>309</v>
       </c>
       <c r="AJ32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32">
         <v>1</v>
       </c>
       <c r="AM32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN32">
         <v>0</v>
@@ -6009,48 +6159,51 @@
         <v>0</v>
       </c>
       <c r="AX32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY32">
         <v>1</v>
       </c>
       <c r="AZ32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB32">
         <v>1</v>
       </c>
       <c r="BC32">
+        <v>1</v>
+      </c>
+      <c r="BD32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:55">
+    <row r="33" spans="1:56">
       <c r="A33" s="2">
         <v>43894.52278679398</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C33">
         <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I33">
         <v>3.01</v>
@@ -6065,28 +6218,25 @@
         <v>1250</v>
       </c>
       <c r="O33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P33" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="R33" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="S33" t="s">
-        <v>236</v>
-      </c>
-      <c r="T33">
+        <v>250</v>
+      </c>
+      <c r="T33" t="s">
+        <v>261</v>
+      </c>
+      <c r="U33">
         <v>6</v>
       </c>
-      <c r="U33" t="s">
-        <v>263</v>
-      </c>
-      <c r="V33">
-        <v>2</v>
+      <c r="V33" t="s">
+        <v>288</v>
       </c>
       <c r="W33">
         <v>2</v>
@@ -6100,53 +6250,53 @@
       <c r="Z33">
         <v>2</v>
       </c>
-      <c r="AB33">
-        <v>1</v>
+      <c r="AA33">
+        <v>2</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33">
         <v>1</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG33">
-        <v>1</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI33">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>1</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>309</v>
       </c>
       <c r="AJ33">
         <v>1</v>
       </c>
       <c r="AK33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33">
         <v>0</v>
       </c>
       <c r="AM33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO33">
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -6161,13 +6311,13 @@
         <v>0</v>
       </c>
       <c r="AV33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY33">
         <v>1</v>
@@ -6179,30 +6329,33 @@
         <v>1</v>
       </c>
       <c r="BB33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:55">
+    <row r="34" spans="1:56">
       <c r="A34" s="2">
         <v>43894.55836739583</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C34">
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I34">
         <v>3.5</v>
@@ -6223,25 +6376,22 @@
         <v>100</v>
       </c>
       <c r="P34" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="R34" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="S34" t="s">
-        <v>238</v>
-      </c>
-      <c r="T34">
+        <v>252</v>
+      </c>
+      <c r="T34" t="s">
+        <v>263</v>
+      </c>
+      <c r="U34">
         <v>9.5</v>
       </c>
-      <c r="U34" t="s">
-        <v>264</v>
-      </c>
-      <c r="V34">
-        <v>3</v>
+      <c r="V34" t="s">
+        <v>289</v>
       </c>
       <c r="W34">
         <v>3</v>
@@ -6250,19 +6400,19 @@
         <v>3</v>
       </c>
       <c r="Y34">
+        <v>3</v>
+      </c>
+      <c r="Z34">
         <v>4</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>2</v>
       </c>
-      <c r="AA34" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB34">
-        <v>0</v>
+      <c r="AB34" t="s">
+        <v>304</v>
       </c>
       <c r="AC34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD34">
         <v>1</v>
@@ -6271,19 +6421,19 @@
         <v>1</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
         <v>2</v>
       </c>
-      <c r="AH34" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI34">
-        <v>1</v>
+      <c r="AI34" t="s">
+        <v>309</v>
       </c>
       <c r="AJ34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK34">
         <v>0</v>
@@ -6292,19 +6442,19 @@
         <v>0</v>
       </c>
       <c r="AM34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN34">
         <v>1</v>
       </c>
       <c r="AO34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>0</v>
@@ -6319,10 +6469,10 @@
         <v>0</v>
       </c>
       <c r="AV34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX34">
         <v>0</v>
@@ -6342,31 +6492,34 @@
       <c r="BC34">
         <v>0</v>
       </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:55">
+    <row r="35" spans="1:56">
       <c r="A35" s="2">
         <v>43894.55954092593</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C35">
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I35">
         <v>4</v>
@@ -6381,70 +6534,67 @@
         <v>1400</v>
       </c>
       <c r="O35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P35" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="R35" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="S35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T35">
+        <v>221</v>
+      </c>
+      <c r="T35" t="s">
+        <v>264</v>
+      </c>
+      <c r="U35">
         <v>7.5</v>
       </c>
-      <c r="U35" t="s">
-        <v>252</v>
-      </c>
-      <c r="V35">
+      <c r="V35" t="s">
+        <v>277</v>
+      </c>
+      <c r="W35">
         <v>2</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>5</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>2</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>3</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>2</v>
       </c>
-      <c r="AA35" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
+      <c r="AB35" t="s">
+        <v>295</v>
       </c>
       <c r="AC35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD35">
         <v>1</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
       </c>
       <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
         <v>3</v>
       </c>
-      <c r="AH35" t="s">
-        <v>285</v>
-      </c>
-      <c r="AI35">
-        <v>0</v>
+      <c r="AI35" t="s">
+        <v>310</v>
       </c>
       <c r="AJ35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35">
         <v>1</v>
@@ -6459,13 +6609,13 @@
         <v>1</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>0</v>
@@ -6480,13 +6630,13 @@
         <v>0</v>
       </c>
       <c r="AV35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW35">
         <v>1</v>
       </c>
       <c r="AX35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY35">
         <v>0</v>
@@ -6503,121 +6653,121 @@
       <c r="BC35">
         <v>0</v>
       </c>
+      <c r="BD35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:55">
+    <row r="36" spans="1:56">
       <c r="A36" s="2">
         <v>43894.58300020833</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C36">
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I36">
         <v>3.63</v>
       </c>
       <c r="O36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P36" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="R36" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="S36" t="s">
-        <v>246</v>
-      </c>
-      <c r="T36">
+        <v>253</v>
+      </c>
+      <c r="T36" t="s">
+        <v>271</v>
+      </c>
+      <c r="U36">
         <v>9.25</v>
       </c>
-      <c r="U36" t="s">
-        <v>259</v>
-      </c>
-      <c r="V36">
+      <c r="V36" t="s">
+        <v>284</v>
+      </c>
+      <c r="W36">
         <v>4</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>3</v>
       </c>
-      <c r="X36">
-        <v>1</v>
-      </c>
       <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36">
         <v>2</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>4</v>
       </c>
-      <c r="AA36" t="s">
-        <v>280</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
+      <c r="AB36" t="s">
+        <v>305</v>
       </c>
       <c r="AC36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD36">
         <v>1</v>
       </c>
       <c r="AE36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG36">
+        <v>1</v>
+      </c>
+      <c r="AH36">
         <v>4</v>
       </c>
-      <c r="AH36" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI36">
-        <v>1</v>
+      <c r="AI36" t="s">
+        <v>309</v>
       </c>
       <c r="AJ36">
         <v>1</v>
       </c>
       <c r="AK36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL36">
         <v>0</v>
       </c>
       <c r="AM36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN36">
         <v>1</v>
       </c>
       <c r="AO36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -6632,10 +6782,10 @@
         <v>0</v>
       </c>
       <c r="AV36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX36">
         <v>0</v>
@@ -6644,42 +6794,45 @@
         <v>0</v>
       </c>
       <c r="AZ36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA36">
         <v>1</v>
       </c>
       <c r="BB36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC36">
+        <v>0</v>
+      </c>
+      <c r="BD36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:55">
+    <row r="37" spans="1:56">
       <c r="A37" s="2">
         <v>43894.59021048611</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37">
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I37">
         <v>3.14</v>
@@ -6691,46 +6844,43 @@
         <v>1010</v>
       </c>
       <c r="O37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P37" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="R37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S37" t="s">
-        <v>240</v>
-      </c>
-      <c r="T37">
+        <v>254</v>
+      </c>
+      <c r="T37" t="s">
+        <v>265</v>
+      </c>
+      <c r="U37">
         <v>7</v>
       </c>
-      <c r="U37" t="s">
-        <v>255</v>
-      </c>
-      <c r="V37">
+      <c r="V37" t="s">
+        <v>280</v>
+      </c>
+      <c r="W37">
         <v>3</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>2</v>
-      </c>
-      <c r="X37">
-        <v>3</v>
       </c>
       <c r="Y37">
         <v>3</v>
       </c>
       <c r="Z37">
+        <v>3</v>
+      </c>
+      <c r="AA37">
         <v>2</v>
       </c>
-      <c r="AA37" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB37">
-        <v>1</v>
+      <c r="AB37" t="s">
+        <v>302</v>
       </c>
       <c r="AC37">
         <v>1</v>
@@ -6745,16 +6895,16 @@
         <v>1</v>
       </c>
       <c r="AG37">
+        <v>1</v>
+      </c>
+      <c r="AH37">
         <v>3</v>
       </c>
-      <c r="AH37" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI37">
-        <v>1</v>
+      <c r="AI37" t="s">
+        <v>309</v>
       </c>
       <c r="AJ37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK37">
         <v>0</v>
@@ -6778,10 +6928,10 @@
         <v>0</v>
       </c>
       <c r="AR37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT37">
         <v>0</v>
@@ -6790,54 +6940,57 @@
         <v>0</v>
       </c>
       <c r="AV37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY37">
         <v>1</v>
       </c>
       <c r="AZ37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC37">
+        <v>0</v>
+      </c>
+      <c r="BD37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:55">
+    <row r="38" spans="1:56">
       <c r="A38" s="2">
         <v>43894.62894226851</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38">
         <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I38">
         <v>3.725</v>
@@ -6852,46 +7005,43 @@
         <v>25</v>
       </c>
       <c r="O38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P38" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="R38" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="S38" t="s">
-        <v>247</v>
-      </c>
-      <c r="T38">
+        <v>228</v>
+      </c>
+      <c r="T38" t="s">
+        <v>272</v>
+      </c>
+      <c r="U38">
         <v>9</v>
       </c>
-      <c r="U38" t="s">
-        <v>262</v>
-      </c>
-      <c r="V38">
-        <v>2</v>
+      <c r="V38" t="s">
+        <v>287</v>
       </c>
       <c r="W38">
         <v>2</v>
       </c>
       <c r="X38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y38">
         <v>1</v>
       </c>
       <c r="Z38">
+        <v>1</v>
+      </c>
+      <c r="AA38">
         <v>2</v>
       </c>
-      <c r="AA38" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB38">
-        <v>1</v>
+      <c r="AB38" t="s">
+        <v>294</v>
       </c>
       <c r="AC38">
         <v>1</v>
@@ -6908,14 +7058,14 @@
       <c r="AG38">
         <v>1</v>
       </c>
-      <c r="AH38" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI38">
-        <v>1</v>
+      <c r="AH38">
+        <v>1</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>309</v>
       </c>
       <c r="AJ38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK38">
         <v>0</v>
@@ -6930,10 +7080,10 @@
         <v>0</v>
       </c>
       <c r="AO38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <v>0</v>
@@ -6954,10 +7104,10 @@
         <v>0</v>
       </c>
       <c r="AW38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY38">
         <v>0</v>
@@ -6966,39 +7116,42 @@
         <v>0</v>
       </c>
       <c r="BA38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC38">
+        <v>0</v>
+      </c>
+      <c r="BD38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:55">
+    <row r="39" spans="1:56">
       <c r="A39" s="2">
         <v>43894.64783795139</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39">
         <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I39">
         <v>3.8</v>
@@ -7016,46 +7169,43 @@
         <v>118</v>
       </c>
       <c r="O39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P39" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="R39" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="S39" t="s">
-        <v>248</v>
-      </c>
-      <c r="T39">
+        <v>255</v>
+      </c>
+      <c r="T39" t="s">
+        <v>273</v>
+      </c>
+      <c r="U39">
         <v>9.5</v>
       </c>
-      <c r="U39" t="s">
-        <v>265</v>
-      </c>
-      <c r="V39">
+      <c r="V39" t="s">
+        <v>290</v>
+      </c>
+      <c r="W39">
         <v>5</v>
       </c>
-      <c r="W39">
-        <v>1</v>
-      </c>
       <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Y39">
         <v>5</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>2</v>
       </c>
-      <c r="Z39">
-        <v>1</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>281</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
+      <c r="AA39">
+        <v>1</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>306</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -7064,49 +7214,49 @@
         <v>0</v>
       </c>
       <c r="AE39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
         <v>2</v>
       </c>
-      <c r="AH39" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI39">
-        <v>1</v>
+      <c r="AI39" t="s">
+        <v>309</v>
       </c>
       <c r="AJ39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39">
         <v>1</v>
       </c>
       <c r="AM39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN39">
         <v>0</v>
       </c>
       <c r="AO39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
         <v>0</v>
       </c>
       <c r="AR39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT39">
         <v>0</v>
@@ -7136,33 +7286,36 @@
         <v>0</v>
       </c>
       <c r="BC39">
+        <v>0</v>
+      </c>
+      <c r="BD39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:55">
+    <row r="40" spans="1:56">
       <c r="A40" s="2">
         <v>43894.64786943287</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40">
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I40">
         <v>3.99</v>
@@ -7171,25 +7324,22 @@
         <v>120</v>
       </c>
       <c r="O40" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="R40" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="S40" t="s">
-        <v>249</v>
-      </c>
-      <c r="T40">
+        <v>250</v>
+      </c>
+      <c r="T40" t="s">
+        <v>274</v>
+      </c>
+      <c r="U40">
         <v>7.083333333333333</v>
       </c>
-      <c r="U40" t="s">
-        <v>266</v>
-      </c>
-      <c r="V40">
-        <v>3</v>
+      <c r="V40" t="s">
+        <v>291</v>
       </c>
       <c r="W40">
         <v>3</v>
@@ -7201,37 +7351,37 @@
         <v>3</v>
       </c>
       <c r="Z40">
-        <v>1</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB40">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>307</v>
       </c>
       <c r="AC40">
         <v>0</v>
       </c>
       <c r="AD40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>0</v>
       </c>
       <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
         <v>5</v>
       </c>
-      <c r="AH40" t="s">
-        <v>286</v>
-      </c>
-      <c r="AI40">
-        <v>0</v>
+      <c r="AI40" t="s">
+        <v>311</v>
       </c>
       <c r="AJ40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK40">
         <v>1</v>
@@ -7246,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AO40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP40">
         <v>0</v>
@@ -7267,13 +7417,13 @@
         <v>0</v>
       </c>
       <c r="AV40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY40">
         <v>1</v>
@@ -7290,31 +7440,34 @@
       <c r="BC40">
         <v>1</v>
       </c>
+      <c r="BD40">
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="1:55">
+    <row r="41" spans="1:56">
       <c r="A41" s="2">
         <v>43894.681955625</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C41">
         <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I41">
         <v>3.99</v>
@@ -7329,64 +7482,61 @@
         <v>1240</v>
       </c>
       <c r="O41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P41" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="R41" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="S41" t="s">
-        <v>250</v>
-      </c>
-      <c r="T41">
+        <v>220</v>
+      </c>
+      <c r="T41" t="s">
+        <v>275</v>
+      </c>
+      <c r="U41">
         <v>8.5</v>
       </c>
-      <c r="U41" t="s">
-        <v>267</v>
-      </c>
-      <c r="V41">
+      <c r="V41" t="s">
+        <v>292</v>
+      </c>
+      <c r="W41">
         <v>4</v>
-      </c>
-      <c r="W41">
-        <v>3</v>
       </c>
       <c r="X41">
         <v>3</v>
       </c>
       <c r="Y41">
+        <v>3</v>
+      </c>
+      <c r="Z41">
         <v>4</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>3</v>
       </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
       <c r="AC41">
         <v>0</v>
       </c>
       <c r="AD41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41">
         <v>1</v>
       </c>
       <c r="AF41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
         <v>2</v>
       </c>
-      <c r="AH41" t="s">
-        <v>285</v>
-      </c>
-      <c r="AI41">
-        <v>0</v>
+      <c r="AI41" t="s">
+        <v>310</v>
       </c>
       <c r="AJ41">
         <v>0</v>
@@ -7440,39 +7590,42 @@
         <v>0</v>
       </c>
       <c r="BA41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC41">
+        <v>0</v>
+      </c>
+      <c r="BD41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:55">
+    <row r="42" spans="1:56">
       <c r="A42" s="2">
         <v>43894.74324072916</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42">
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I42">
         <v>3.3</v>
@@ -7481,46 +7634,43 @@
         <v>3</v>
       </c>
       <c r="O42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P42" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="R42" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="S42" t="s">
-        <v>240</v>
-      </c>
-      <c r="T42">
+        <v>256</v>
+      </c>
+      <c r="T42" t="s">
+        <v>265</v>
+      </c>
+      <c r="U42">
         <v>7.166666666666667</v>
       </c>
-      <c r="U42" t="s">
-        <v>268</v>
-      </c>
-      <c r="V42">
+      <c r="V42" t="s">
+        <v>293</v>
+      </c>
+      <c r="W42">
         <v>4</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>4</v>
-      </c>
-      <c r="Y42">
-        <v>5</v>
       </c>
       <c r="Z42">
         <v>5</v>
       </c>
-      <c r="AA42" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB42">
-        <v>0</v>
+      <c r="AA42">
+        <v>5</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>295</v>
       </c>
       <c r="AC42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD42">
         <v>1</v>
@@ -7529,22 +7679,22 @@
         <v>1</v>
       </c>
       <c r="AF42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
         <v>3</v>
       </c>
-      <c r="AH42" t="s">
-        <v>287</v>
-      </c>
-      <c r="AI42">
-        <v>1</v>
+      <c r="AI42" t="s">
+        <v>312</v>
       </c>
       <c r="AJ42">
         <v>1</v>
       </c>
       <c r="AK42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL42">
         <v>0</v>
@@ -7562,10 +7712,10 @@
         <v>0</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS42">
         <v>0</v>
@@ -7577,16 +7727,16 @@
         <v>0</v>
       </c>
       <c r="AV42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ42">
         <v>0</v>
@@ -7598,33 +7748,36 @@
         <v>0</v>
       </c>
       <c r="BC42">
+        <v>0</v>
+      </c>
+      <c r="BD42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:55">
+    <row r="43" spans="1:56">
       <c r="A43" s="2">
         <v>43894.78062489584</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C43">
         <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I43">
         <v>4</v>
@@ -7636,46 +7789,43 @@
         <v>1480</v>
       </c>
       <c r="O43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P43" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="R43" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="S43" t="s">
-        <v>235</v>
-      </c>
-      <c r="T43">
+        <v>250</v>
+      </c>
+      <c r="T43" t="s">
+        <v>260</v>
+      </c>
+      <c r="U43">
         <v>6</v>
       </c>
-      <c r="U43" t="s">
-        <v>252</v>
-      </c>
-      <c r="V43">
+      <c r="V43" t="s">
+        <v>277</v>
+      </c>
+      <c r="W43">
         <v>3</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>2</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>3</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>4</v>
       </c>
-      <c r="Z43">
-        <v>1</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB43">
-        <v>0</v>
+      <c r="AA43">
+        <v>1</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>294</v>
       </c>
       <c r="AC43">
         <v>0</v>
@@ -7684,34 +7834,34 @@
         <v>0</v>
       </c>
       <c r="AE43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
         <v>4</v>
       </c>
-      <c r="AH43" t="s">
-        <v>287</v>
-      </c>
-      <c r="AI43">
-        <v>0</v>
+      <c r="AI43" t="s">
+        <v>312</v>
       </c>
       <c r="AJ43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43">
         <v>1</v>
       </c>
       <c r="AN43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO43">
         <v>0</v>
@@ -7720,10 +7870,10 @@
         <v>0</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS43">
         <v>0</v>
@@ -7735,132 +7885,132 @@
         <v>0</v>
       </c>
       <c r="AV43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ43">
         <v>0</v>
       </c>
       <c r="BA43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC43">
+        <v>0</v>
+      </c>
+      <c r="BD43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:55">
+    <row r="44" spans="1:56">
       <c r="A44" s="2">
         <v>43894.78842625</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44">
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H44" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I44">
         <v>3.74</v>
       </c>
       <c r="O44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="R44" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="S44" t="s">
-        <v>235</v>
-      </c>
-      <c r="T44">
+        <v>257</v>
+      </c>
+      <c r="T44" t="s">
+        <v>260</v>
+      </c>
+      <c r="U44">
         <v>5.5</v>
       </c>
-      <c r="U44" t="s">
-        <v>258</v>
-      </c>
-      <c r="V44">
+      <c r="V44" t="s">
+        <v>283</v>
+      </c>
+      <c r="W44">
         <v>4</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>2</v>
-      </c>
-      <c r="X44">
-        <v>4</v>
       </c>
       <c r="Y44">
         <v>4</v>
       </c>
       <c r="Z44">
+        <v>4</v>
+      </c>
+      <c r="AA44">
         <v>5</v>
       </c>
-      <c r="AB44">
-        <v>1</v>
-      </c>
       <c r="AC44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG44">
+        <v>1</v>
+      </c>
+      <c r="AH44">
         <v>3</v>
       </c>
-      <c r="AH44" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI44">
-        <v>1</v>
+      <c r="AI44" t="s">
+        <v>309</v>
       </c>
       <c r="AJ44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK44">
         <v>0</v>
       </c>
       <c r="AL44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO44">
         <v>1</v>
@@ -7869,7 +8019,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>0</v>
@@ -7884,48 +8034,51 @@
         <v>0</v>
       </c>
       <c r="AV44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX44">
         <v>0</v>
       </c>
       <c r="AY44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC44">
+        <v>0</v>
+      </c>
+      <c r="BD44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:55">
+    <row r="45" spans="1:56">
       <c r="A45" s="2">
         <v>43894.92801395834</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45">
         <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E45" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F45" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I45">
         <v>1.8</v>
@@ -7940,46 +8093,43 @@
         <v>8</v>
       </c>
       <c r="O45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P45" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="R45" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="S45" t="s">
-        <v>238</v>
-      </c>
-      <c r="T45">
+        <v>226</v>
+      </c>
+      <c r="T45" t="s">
+        <v>263</v>
+      </c>
+      <c r="U45">
         <v>12</v>
       </c>
-      <c r="U45" t="s">
-        <v>267</v>
-      </c>
-      <c r="V45">
+      <c r="V45" t="s">
+        <v>292</v>
+      </c>
+      <c r="W45">
         <v>5</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>2</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>5</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>4</v>
       </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>2</v>
       </c>
-      <c r="AA45" t="s">
-        <v>276</v>
-      </c>
-      <c r="AB45">
-        <v>0</v>
+      <c r="AB45" t="s">
+        <v>301</v>
       </c>
       <c r="AC45">
         <v>0</v>
@@ -7988,19 +8138,19 @@
         <v>0</v>
       </c>
       <c r="AE45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>1</v>
       </c>
       <c r="AG45">
+        <v>1</v>
+      </c>
+      <c r="AH45">
         <v>4</v>
       </c>
-      <c r="AH45" t="s">
-        <v>287</v>
-      </c>
-      <c r="AI45">
-        <v>0</v>
+      <c r="AI45" t="s">
+        <v>312</v>
       </c>
       <c r="AJ45">
         <v>0</v>
@@ -8018,19 +8168,19 @@
         <v>0</v>
       </c>
       <c r="AO45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>0</v>
       </c>
       <c r="AR45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT45">
         <v>0</v>
@@ -8039,13 +8189,13 @@
         <v>0</v>
       </c>
       <c r="AV45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW45">
         <v>1</v>
       </c>
       <c r="AX45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY45">
         <v>0</v>
@@ -8054,114 +8204,114 @@
         <v>0</v>
       </c>
       <c r="BA45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC45">
         <v>0</v>
       </c>
+      <c r="BD45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:55">
+    <row r="46" spans="1:56">
       <c r="A46" s="2">
         <v>43895.59275732639</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46">
         <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I46">
         <v>3.9</v>
       </c>
       <c r="O46" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P46" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R46" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="S46" t="s">
-        <v>239</v>
-      </c>
-      <c r="T46">
+        <v>220</v>
+      </c>
+      <c r="T46" t="s">
+        <v>264</v>
+      </c>
+      <c r="U46">
         <v>7.5</v>
       </c>
-      <c r="U46" t="s">
-        <v>252</v>
-      </c>
-      <c r="V46">
+      <c r="V46" t="s">
+        <v>277</v>
+      </c>
+      <c r="W46">
         <v>4</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>3</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>5</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>4</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>2</v>
       </c>
-      <c r="AA46" t="s">
-        <v>275</v>
-      </c>
-      <c r="AB46">
-        <v>0</v>
+      <c r="AB46" t="s">
+        <v>300</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD46">
         <v>1</v>
       </c>
       <c r="AE46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>0</v>
       </c>
       <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
         <v>2</v>
       </c>
-      <c r="AH46" t="s">
-        <v>285</v>
-      </c>
-      <c r="AI46">
-        <v>0</v>
+      <c r="AI46" t="s">
+        <v>310</v>
       </c>
       <c r="AJ46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46">
         <v>1</v>
@@ -8170,7 +8320,7 @@
         <v>1</v>
       </c>
       <c r="AO46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP46">
         <v>0</v>
@@ -8191,54 +8341,57 @@
         <v>0</v>
       </c>
       <c r="AV46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX46">
         <v>0</v>
       </c>
       <c r="AY46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC46">
+        <v>0</v>
+      </c>
+      <c r="BD46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:55">
+    <row r="47" spans="1:56">
       <c r="A47" s="2">
         <v>43895.59934554398</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47">
         <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F47" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H47" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I47">
         <v>3.2</v>
@@ -8253,94 +8406,91 @@
         <v>980</v>
       </c>
       <c r="O47" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P47" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="R47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S47" t="s">
-        <v>238</v>
-      </c>
-      <c r="T47">
+        <v>247</v>
+      </c>
+      <c r="T47" t="s">
+        <v>263</v>
+      </c>
+      <c r="U47">
         <v>8</v>
       </c>
-      <c r="U47" t="s">
-        <v>254</v>
-      </c>
-      <c r="V47">
+      <c r="V47" t="s">
+        <v>279</v>
+      </c>
+      <c r="W47">
         <v>4</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>3</v>
-      </c>
-      <c r="X47">
-        <v>5</v>
       </c>
       <c r="Y47">
         <v>5</v>
       </c>
       <c r="Z47">
+        <v>5</v>
+      </c>
+      <c r="AA47">
         <v>4</v>
       </c>
-      <c r="AA47" t="s">
-        <v>276</v>
-      </c>
-      <c r="AB47">
-        <v>0</v>
+      <c r="AB47" t="s">
+        <v>301</v>
       </c>
       <c r="AC47">
         <v>0</v>
       </c>
       <c r="AD47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE47">
         <v>1</v>
       </c>
       <c r="AF47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
         <v>3</v>
       </c>
-      <c r="AH47" t="s">
-        <v>288</v>
-      </c>
-      <c r="AI47">
-        <v>1</v>
+      <c r="AI47" t="s">
+        <v>313</v>
       </c>
       <c r="AJ47">
         <v>1</v>
       </c>
       <c r="AK47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL47">
         <v>0</v>
       </c>
       <c r="AM47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN47">
         <v>1</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ47">
         <v>1</v>
       </c>
       <c r="AR47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS47">
         <v>0</v>
@@ -8375,31 +8525,34 @@
       <c r="BC47">
         <v>0</v>
       </c>
+      <c r="BD47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:55">
+    <row r="48" spans="1:56">
       <c r="A48" s="2">
         <v>43895.60494581018</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48">
         <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H48" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I48">
         <v>3</v>
@@ -8411,34 +8564,31 @@
         <v>1140</v>
       </c>
       <c r="O48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P48" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="R48" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="S48" t="s">
-        <v>251</v>
-      </c>
-      <c r="T48">
+        <v>258</v>
+      </c>
+      <c r="T48" t="s">
+        <v>276</v>
+      </c>
+      <c r="U48">
         <v>8.5</v>
       </c>
-      <c r="U48" t="s">
-        <v>252</v>
-      </c>
-      <c r="V48">
+      <c r="V48" t="s">
+        <v>277</v>
+      </c>
+      <c r="W48">
         <v>4</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>3</v>
-      </c>
-      <c r="X48">
-        <v>4</v>
       </c>
       <c r="Y48">
         <v>4</v>
@@ -8446,38 +8596,38 @@
       <c r="Z48">
         <v>4</v>
       </c>
-      <c r="AA48" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB48">
-        <v>0</v>
+      <c r="AA48">
+        <v>4</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>304</v>
       </c>
       <c r="AC48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>1</v>
       </c>
       <c r="AG48">
+        <v>1</v>
+      </c>
+      <c r="AH48">
         <v>3</v>
       </c>
-      <c r="AH48" t="s">
-        <v>287</v>
-      </c>
-      <c r="AI48">
-        <v>1</v>
+      <c r="AI48" t="s">
+        <v>312</v>
       </c>
       <c r="AJ48">
         <v>1</v>
       </c>
       <c r="AK48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL48">
         <v>0</v>
@@ -8486,22 +8636,22 @@
         <v>0</v>
       </c>
       <c r="AN48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT48">
         <v>0</v>
@@ -8510,54 +8660,57 @@
         <v>0</v>
       </c>
       <c r="AV48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ48">
         <v>0</v>
       </c>
       <c r="BA48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB48">
         <v>1</v>
       </c>
       <c r="BC48">
+        <v>1</v>
+      </c>
+      <c r="BD48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:55">
+    <row r="49" spans="1:56">
       <c r="A49" s="2">
         <v>43895.61810560185</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49">
         <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E49" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H49" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I49">
         <v>3.4</v>
@@ -8572,73 +8725,70 @@
         <v>1100</v>
       </c>
       <c r="O49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="R49" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="S49" t="s">
-        <v>235</v>
-      </c>
-      <c r="T49">
+        <v>219</v>
+      </c>
+      <c r="T49" t="s">
+        <v>260</v>
+      </c>
+      <c r="U49">
         <v>6.333333333333333</v>
       </c>
-      <c r="U49" t="s">
-        <v>261</v>
-      </c>
-      <c r="V49">
+      <c r="V49" t="s">
+        <v>286</v>
+      </c>
+      <c r="W49">
         <v>4</v>
-      </c>
-      <c r="W49">
-        <v>2</v>
       </c>
       <c r="X49">
         <v>2</v>
       </c>
       <c r="Y49">
+        <v>2</v>
+      </c>
+      <c r="Z49">
         <v>4</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>3</v>
       </c>
-      <c r="AA49" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB49">
-        <v>0</v>
+      <c r="AB49" t="s">
+        <v>308</v>
       </c>
       <c r="AC49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG49">
-        <v>1</v>
-      </c>
-      <c r="AH49" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI49">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>1</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>309</v>
       </c>
       <c r="AJ49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL49">
         <v>0</v>
@@ -8650,19 +8800,19 @@
         <v>0</v>
       </c>
       <c r="AO49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
         <v>0</v>
       </c>
       <c r="AR49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT49">
         <v>0</v>
@@ -8686,39 +8836,42 @@
         <v>0</v>
       </c>
       <c r="BA49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC49">
+        <v>0</v>
+      </c>
+      <c r="BD49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:55">
+    <row r="50" spans="1:56">
       <c r="A50" s="2">
         <v>43895.83957038195</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50">
         <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G50" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I50">
         <v>4</v>
@@ -8730,46 +8883,43 @@
         <v>1480</v>
       </c>
       <c r="O50" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P50" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="R50" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="S50" t="s">
-        <v>235</v>
-      </c>
-      <c r="T50">
+        <v>250</v>
+      </c>
+      <c r="T50" t="s">
+        <v>260</v>
+      </c>
+      <c r="U50">
         <v>6</v>
       </c>
-      <c r="U50" t="s">
-        <v>252</v>
-      </c>
-      <c r="V50">
+      <c r="V50" t="s">
+        <v>277</v>
+      </c>
+      <c r="W50">
         <v>3</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>2</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <v>3</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <v>4</v>
       </c>
-      <c r="Z50">
-        <v>1</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB50">
-        <v>0</v>
+      <c r="AA50">
+        <v>1</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>294</v>
       </c>
       <c r="AC50">
         <v>0</v>
@@ -8778,34 +8928,34 @@
         <v>0</v>
       </c>
       <c r="AE50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
         <v>4</v>
       </c>
-      <c r="AH50" t="s">
-        <v>287</v>
-      </c>
-      <c r="AI50">
-        <v>0</v>
+      <c r="AI50" t="s">
+        <v>312</v>
       </c>
       <c r="AJ50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50">
         <v>1</v>
       </c>
       <c r="AN50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO50">
         <v>0</v>
@@ -8814,10 +8964,10 @@
         <v>0</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS50">
         <v>0</v>
@@ -8829,27 +8979,30 @@
         <v>0</v>
       </c>
       <c r="AV50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ50">
         <v>0</v>
       </c>
       <c r="BA50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC50">
+        <v>0</v>
+      </c>
+      <c r="BD50">
         <v>1</v>
       </c>
     </row>
